--- a/attendance-files/SM-II/SM-II (F) Attendance Sheet.xlsx
+++ b/attendance-files/SM-II/SM-II (F) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="172">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1639,7 +1639,9 @@
       <c r="J7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="30"/>
+      <c r="K7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L7" s="30"/>
       <c r="M7" s="30"/>
       <c r="N7" s="30"/>
@@ -1677,7 +1679,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>20</v>
@@ -1691,7 +1693,9 @@
       <c r="J8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="35"/>
+      <c r="K8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L8" s="35"/>
       <c r="M8" s="35"/>
       <c r="N8" s="35"/>
@@ -1729,7 +1733,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>25</v>
@@ -1743,7 +1747,9 @@
       <c r="J9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="35"/>
+      <c r="K9" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
       <c r="N9" s="35"/>
@@ -1777,7 +1783,7 @@
       </c>
       <c r="E10" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
@@ -1795,7 +1801,9 @@
       <c r="J10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="35"/>
+      <c r="K10" s="29" t="s">
+        <v>25</v>
+      </c>
       <c r="L10" s="35"/>
       <c r="M10" s="35"/>
       <c r="N10" s="35"/>
@@ -1833,7 +1841,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>25</v>
@@ -1847,7 +1855,9 @@
       <c r="J11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="35"/>
+      <c r="K11" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L11" s="35"/>
       <c r="M11" s="35"/>
       <c r="N11" s="35"/>
@@ -1885,7 +1895,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>20</v>
@@ -1899,7 +1909,9 @@
       <c r="J12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="35"/>
+      <c r="K12" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L12" s="35"/>
       <c r="M12" s="35"/>
       <c r="N12" s="35"/>
@@ -1937,7 +1949,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>20</v>
@@ -1951,7 +1963,9 @@
       <c r="J13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="35"/>
+      <c r="K13" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L13" s="35"/>
       <c r="M13" s="35"/>
       <c r="N13" s="35"/>
@@ -1989,7 +2003,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>20</v>
@@ -2003,7 +2017,9 @@
       <c r="J14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="35"/>
+      <c r="K14" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L14" s="35"/>
       <c r="M14" s="35"/>
       <c r="N14" s="35"/>
@@ -2041,7 +2057,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>20</v>
@@ -2055,7 +2071,9 @@
       <c r="J15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="35"/>
+      <c r="K15" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L15" s="35"/>
       <c r="M15" s="35"/>
       <c r="N15" s="35"/>
@@ -2093,7 +2111,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>20</v>
@@ -2107,7 +2125,9 @@
       <c r="J16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="35"/>
+      <c r="K16" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L16" s="35"/>
       <c r="M16" s="35"/>
       <c r="N16" s="35"/>
@@ -2141,7 +2161,7 @@
       </c>
       <c r="E17" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
@@ -2159,7 +2179,9 @@
       <c r="J17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="35"/>
+      <c r="K17" s="29" t="s">
+        <v>25</v>
+      </c>
       <c r="L17" s="35"/>
       <c r="M17" s="35"/>
       <c r="N17" s="35"/>
@@ -2197,7 +2219,7 @@
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>25</v>
@@ -2211,7 +2233,9 @@
       <c r="J18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="35"/>
+      <c r="K18" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L18" s="35"/>
       <c r="M18" s="35"/>
       <c r="N18" s="35"/>
@@ -2249,7 +2273,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" s="37" t="s">
         <v>25</v>
@@ -2263,7 +2287,9 @@
       <c r="J19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="35"/>
+      <c r="K19" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L19" s="35"/>
       <c r="M19" s="35"/>
       <c r="N19" s="35"/>
@@ -2301,7 +2327,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20" s="37" t="s">
         <v>25</v>
@@ -2315,7 +2341,9 @@
       <c r="J20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="35"/>
+      <c r="K20" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L20" s="35"/>
       <c r="M20" s="35"/>
       <c r="N20" s="35"/>
@@ -2353,7 +2381,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" s="37" t="s">
         <v>25</v>
@@ -2367,7 +2395,9 @@
       <c r="J21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="35"/>
+      <c r="K21" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L21" s="35"/>
       <c r="M21" s="35"/>
       <c r="N21" s="35"/>
@@ -2405,7 +2435,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>20</v>
@@ -2419,7 +2449,9 @@
       <c r="J22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="35"/>
+      <c r="K22" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L22" s="35"/>
       <c r="M22" s="35"/>
       <c r="N22" s="35"/>
@@ -2457,7 +2489,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G23" s="37" t="s">
         <v>20</v>
@@ -2471,7 +2503,9 @@
       <c r="J23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="35"/>
+      <c r="K23" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L23" s="35"/>
       <c r="M23" s="35"/>
       <c r="N23" s="35"/>
@@ -2509,7 +2543,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G24" s="37" t="s">
         <v>20</v>
@@ -2523,7 +2557,9 @@
       <c r="J24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="35"/>
+      <c r="K24" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L24" s="35"/>
       <c r="M24" s="35"/>
       <c r="N24" s="35"/>
@@ -2561,7 +2597,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G25" s="37" t="s">
         <v>20</v>
@@ -2575,7 +2611,9 @@
       <c r="J25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="35"/>
+      <c r="K25" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L25" s="35"/>
       <c r="M25" s="35"/>
       <c r="N25" s="35"/>
@@ -2613,7 +2651,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G26" s="37" t="s">
         <v>20</v>
@@ -2627,7 +2665,9 @@
       <c r="J26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="35"/>
+      <c r="K26" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L26" s="35"/>
       <c r="M26" s="35"/>
       <c r="N26" s="35"/>
@@ -2665,7 +2705,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27" s="37" t="s">
         <v>25</v>
@@ -2679,7 +2719,9 @@
       <c r="J27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="35"/>
+      <c r="K27" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L27" s="35"/>
       <c r="M27" s="35"/>
       <c r="N27" s="35"/>
@@ -2717,7 +2759,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" s="37" t="s">
         <v>25</v>
@@ -2731,7 +2773,9 @@
       <c r="J28" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="K28" s="35"/>
+      <c r="K28" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L28" s="35"/>
       <c r="M28" s="35"/>
       <c r="N28" s="35"/>
@@ -2769,7 +2813,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" s="37" t="s">
         <v>20</v>
@@ -2783,7 +2827,9 @@
       <c r="J29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="35"/>
+      <c r="K29" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L29" s="35"/>
       <c r="M29" s="35"/>
       <c r="N29" s="35"/>
@@ -2821,7 +2867,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G30" s="37" t="s">
         <v>25</v>
@@ -2835,7 +2881,9 @@
       <c r="J30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="35"/>
+      <c r="K30" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L30" s="35"/>
       <c r="M30" s="35"/>
       <c r="N30" s="35"/>
@@ -2873,7 +2921,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G31" s="37" t="s">
         <v>25</v>
@@ -2887,7 +2935,9 @@
       <c r="J31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="35"/>
+      <c r="K31" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L31" s="35"/>
       <c r="M31" s="35"/>
       <c r="N31" s="35"/>
@@ -2921,7 +2971,7 @@
       </c>
       <c r="E32" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
@@ -2939,7 +2989,9 @@
       <c r="J32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="35"/>
+      <c r="K32" s="29" t="s">
+        <v>25</v>
+      </c>
       <c r="L32" s="35"/>
       <c r="M32" s="35"/>
       <c r="N32" s="35"/>
@@ -2977,7 +3029,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G33" s="37" t="s">
         <v>20</v>
@@ -2991,7 +3043,9 @@
       <c r="J33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K33" s="35"/>
+      <c r="K33" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L33" s="35"/>
       <c r="M33" s="35"/>
       <c r="N33" s="35"/>
@@ -3029,7 +3083,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G34" s="37" t="s">
         <v>20</v>
@@ -3043,7 +3097,9 @@
       <c r="J34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="35"/>
+      <c r="K34" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L34" s="35"/>
       <c r="M34" s="35"/>
       <c r="N34" s="35"/>
@@ -3081,7 +3137,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G35" s="37" t="s">
         <v>20</v>
@@ -3095,7 +3151,9 @@
       <c r="J35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="35"/>
+      <c r="K35" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L35" s="35"/>
       <c r="M35" s="35"/>
       <c r="N35" s="35"/>
@@ -3133,7 +3191,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>25</v>
@@ -3147,7 +3205,9 @@
       <c r="J36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K36" s="35"/>
+      <c r="K36" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L36" s="35"/>
       <c r="M36" s="35"/>
       <c r="N36" s="35"/>
@@ -3185,7 +3245,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G37" s="37" t="s">
         <v>20</v>
@@ -3199,7 +3259,9 @@
       <c r="J37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K37" s="35"/>
+      <c r="K37" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L37" s="35"/>
       <c r="M37" s="35"/>
       <c r="N37" s="35"/>
@@ -3237,7 +3299,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38" s="37" t="s">
         <v>20</v>
@@ -3251,7 +3313,9 @@
       <c r="J38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K38" s="35"/>
+      <c r="K38" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L38" s="35"/>
       <c r="M38" s="35"/>
       <c r="N38" s="35"/>
@@ -3289,7 +3353,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39" s="37" t="s">
         <v>25</v>
@@ -3303,7 +3367,9 @@
       <c r="J39" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K39" s="35"/>
+      <c r="K39" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L39" s="35"/>
       <c r="M39" s="35"/>
       <c r="N39" s="35"/>
@@ -3337,7 +3403,7 @@
       </c>
       <c r="E40" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
@@ -3355,7 +3421,9 @@
       <c r="J40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K40" s="35"/>
+      <c r="K40" s="29" t="s">
+        <v>25</v>
+      </c>
       <c r="L40" s="35"/>
       <c r="M40" s="35"/>
       <c r="N40" s="35"/>
@@ -3393,7 +3461,7 @@
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G41" s="37" t="s">
         <v>20</v>
@@ -3407,7 +3475,9 @@
       <c r="J41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K41" s="35"/>
+      <c r="K41" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L41" s="35"/>
       <c r="M41" s="35"/>
       <c r="N41" s="35"/>
@@ -3441,7 +3511,7 @@
       </c>
       <c r="E42" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
@@ -3459,7 +3529,9 @@
       <c r="J42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K42" s="35"/>
+      <c r="K42" s="29" t="s">
+        <v>25</v>
+      </c>
       <c r="L42" s="35"/>
       <c r="M42" s="35"/>
       <c r="N42" s="35"/>
@@ -3497,7 +3569,7 @@
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G43" s="37" t="s">
         <v>25</v>
@@ -3511,7 +3583,9 @@
       <c r="J43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K43" s="35"/>
+      <c r="K43" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L43" s="35"/>
       <c r="M43" s="35"/>
       <c r="N43" s="35"/>
@@ -3549,7 +3623,7 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G44" s="37" t="s">
         <v>20</v>
@@ -3563,7 +3637,9 @@
       <c r="J44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K44" s="35"/>
+      <c r="K44" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L44" s="35"/>
       <c r="M44" s="35"/>
       <c r="N44" s="35"/>
@@ -3601,7 +3677,7 @@
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G45" s="37" t="s">
         <v>25</v>
@@ -3615,7 +3691,9 @@
       <c r="J45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K45" s="35"/>
+      <c r="K45" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L45" s="35"/>
       <c r="M45" s="35"/>
       <c r="N45" s="35"/>
@@ -3649,12 +3727,12 @@
       </c>
       <c r="E46" s="26">
         <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F46" s="34">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F46" s="34">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
       <c r="G46" s="37" t="s">
         <v>25</v>
       </c>
@@ -3667,7 +3745,9 @@
       <c r="J46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K46" s="35"/>
+      <c r="K46" s="29" t="s">
+        <v>25</v>
+      </c>
       <c r="L46" s="35"/>
       <c r="M46" s="35"/>
       <c r="N46" s="35"/>
@@ -3701,12 +3781,12 @@
       </c>
       <c r="E47" s="26">
         <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F47" s="34">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F47" s="34">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
       <c r="G47" s="37" t="s">
         <v>25</v>
       </c>
@@ -3719,7 +3799,9 @@
       <c r="J47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K47" s="35"/>
+      <c r="K47" s="29" t="s">
+        <v>25</v>
+      </c>
       <c r="L47" s="35"/>
       <c r="M47" s="35"/>
       <c r="N47" s="35"/>
@@ -3757,7 +3839,7 @@
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G48" s="37" t="s">
         <v>20</v>
@@ -3771,7 +3853,9 @@
       <c r="J48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K48" s="35"/>
+      <c r="K48" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L48" s="35"/>
       <c r="M48" s="35"/>
       <c r="N48" s="35"/>
@@ -3809,7 +3893,7 @@
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G49" s="37" t="s">
         <v>20</v>
@@ -3823,7 +3907,9 @@
       <c r="J49" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K49" s="35"/>
+      <c r="K49" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L49" s="35"/>
       <c r="M49" s="35"/>
       <c r="N49" s="35"/>
@@ -3861,7 +3947,7 @@
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G50" s="37" t="s">
         <v>25</v>
@@ -3875,7 +3961,9 @@
       <c r="J50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K50" s="35"/>
+      <c r="K50" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L50" s="35"/>
       <c r="M50" s="35"/>
       <c r="N50" s="35"/>
@@ -3913,7 +4001,7 @@
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G51" s="37" t="s">
         <v>25</v>
@@ -3927,7 +4015,9 @@
       <c r="J51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K51" s="35"/>
+      <c r="K51" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L51" s="35"/>
       <c r="M51" s="35"/>
       <c r="N51" s="35"/>
@@ -3965,7 +4055,7 @@
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G52" s="37" t="s">
         <v>20</v>
@@ -3979,7 +4069,9 @@
       <c r="J52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K52" s="35"/>
+      <c r="K52" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L52" s="35"/>
       <c r="M52" s="35"/>
       <c r="N52" s="35"/>
@@ -4017,7 +4109,7 @@
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G53" s="37" t="s">
         <v>25</v>
@@ -4031,7 +4123,9 @@
       <c r="J53" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K53" s="35"/>
+      <c r="K53" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L53" s="35"/>
       <c r="M53" s="35"/>
       <c r="N53" s="35"/>
@@ -4069,7 +4163,7 @@
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G54" s="37" t="s">
         <v>20</v>
@@ -4083,7 +4177,9 @@
       <c r="J54" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K54" s="35"/>
+      <c r="K54" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L54" s="35"/>
       <c r="M54" s="35"/>
       <c r="N54" s="35"/>
@@ -4117,12 +4213,12 @@
       </c>
       <c r="E55" s="26">
         <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F55" s="34">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F55" s="34">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
       <c r="G55" s="37" t="s">
         <v>25</v>
       </c>
@@ -4135,7 +4231,9 @@
       <c r="J55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K55" s="35"/>
+      <c r="K55" s="29" t="s">
+        <v>25</v>
+      </c>
       <c r="L55" s="35"/>
       <c r="M55" s="35"/>
       <c r="N55" s="35"/>
@@ -4173,7 +4271,7 @@
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G56" s="37" t="s">
         <v>20</v>
@@ -4187,7 +4285,9 @@
       <c r="J56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K56" s="35"/>
+      <c r="K56" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L56" s="35"/>
       <c r="M56" s="35"/>
       <c r="N56" s="35"/>
@@ -4221,12 +4321,12 @@
       </c>
       <c r="E57" s="26">
         <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F57" s="34">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F57" s="34">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
       <c r="G57" s="37" t="s">
         <v>25</v>
       </c>
@@ -4239,7 +4339,9 @@
       <c r="J57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K57" s="35"/>
+      <c r="K57" s="29" t="s">
+        <v>25</v>
+      </c>
       <c r="L57" s="35"/>
       <c r="M57" s="35"/>
       <c r="N57" s="35"/>
@@ -4277,7 +4379,7 @@
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G58" s="37" t="s">
         <v>20</v>
@@ -4291,7 +4393,9 @@
       <c r="J58" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K58" s="35"/>
+      <c r="K58" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L58" s="35"/>
       <c r="M58" s="35"/>
       <c r="N58" s="35"/>
@@ -4329,7 +4433,7 @@
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G59" s="37" t="s">
         <v>25</v>
@@ -4343,7 +4447,9 @@
       <c r="J59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K59" s="35"/>
+      <c r="K59" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L59" s="35"/>
       <c r="M59" s="35"/>
       <c r="N59" s="35"/>
@@ -4381,7 +4487,7 @@
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G60" s="37" t="s">
         <v>20</v>
@@ -4395,7 +4501,9 @@
       <c r="J60" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K60" s="35"/>
+      <c r="K60" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L60" s="35"/>
       <c r="M60" s="35"/>
       <c r="N60" s="35"/>
@@ -4433,7 +4541,7 @@
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G61" s="37" t="s">
         <v>20</v>
@@ -4447,7 +4555,9 @@
       <c r="J61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K61" s="35"/>
+      <c r="K61" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L61" s="35"/>
       <c r="M61" s="35"/>
       <c r="N61" s="35"/>
@@ -4485,7 +4595,7 @@
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G62" s="37" t="s">
         <v>20</v>
@@ -4499,7 +4609,9 @@
       <c r="J62" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K62" s="35"/>
+      <c r="K62" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L62" s="35"/>
       <c r="M62" s="35"/>
       <c r="N62" s="35"/>
@@ -4537,7 +4649,7 @@
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G63" s="37" t="s">
         <v>20</v>
@@ -4551,7 +4663,9 @@
       <c r="J63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K63" s="35"/>
+      <c r="K63" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L63" s="35"/>
       <c r="M63" s="35"/>
       <c r="N63" s="35"/>
@@ -4585,12 +4699,12 @@
       </c>
       <c r="E64" s="26">
         <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F64" s="34">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F64" s="34">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
       <c r="G64" s="37" t="s">
         <v>25</v>
       </c>
@@ -4603,7 +4717,9 @@
       <c r="J64" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K64" s="35"/>
+      <c r="K64" s="29" t="s">
+        <v>25</v>
+      </c>
       <c r="L64" s="35"/>
       <c r="M64" s="35"/>
       <c r="N64" s="35"/>
@@ -4641,7 +4757,7 @@
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G65" s="37" t="s">
         <v>20</v>
@@ -4655,7 +4771,9 @@
       <c r="J65" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K65" s="35"/>
+      <c r="K65" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L65" s="35"/>
       <c r="M65" s="35"/>
       <c r="N65" s="35"/>
@@ -4689,7 +4807,7 @@
       </c>
       <c r="E66" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
@@ -4707,7 +4825,9 @@
       <c r="J66" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K66" s="35"/>
+      <c r="K66" s="29" t="s">
+        <v>25</v>
+      </c>
       <c r="L66" s="35"/>
       <c r="M66" s="35"/>
       <c r="N66" s="35"/>
@@ -4741,7 +4861,7 @@
       </c>
       <c r="E67" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
@@ -4759,7 +4879,9 @@
       <c r="J67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K67" s="35"/>
+      <c r="K67" s="29" t="s">
+        <v>25</v>
+      </c>
       <c r="L67" s="35"/>
       <c r="M67" s="35"/>
       <c r="N67" s="35"/>
@@ -4797,7 +4919,7 @@
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G68" s="37" t="s">
         <v>20</v>
@@ -4811,7 +4933,9 @@
       <c r="J68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K68" s="35"/>
+      <c r="K68" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L68" s="35"/>
       <c r="M68" s="35"/>
       <c r="N68" s="35"/>
@@ -4849,7 +4973,7 @@
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G69" s="37" t="s">
         <v>25</v>
@@ -4863,7 +4987,9 @@
       <c r="J69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K69" s="35"/>
+      <c r="K69" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L69" s="35"/>
       <c r="M69" s="35"/>
       <c r="N69" s="35"/>
@@ -4901,7 +5027,7 @@
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G70" s="37" t="s">
         <v>25</v>
@@ -4915,7 +5041,9 @@
       <c r="J70" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K70" s="35"/>
+      <c r="K70" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L70" s="35"/>
       <c r="M70" s="35"/>
       <c r="N70" s="35"/>
@@ -4953,7 +5081,7 @@
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G71" s="37" t="s">
         <v>20</v>
@@ -4967,7 +5095,9 @@
       <c r="J71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K71" s="35"/>
+      <c r="K71" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L71" s="35"/>
       <c r="M71" s="35"/>
       <c r="N71" s="35"/>
@@ -5001,7 +5131,7 @@
       </c>
       <c r="E72" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
@@ -5019,7 +5149,9 @@
       <c r="J72" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="K72" s="35"/>
+      <c r="K72" s="29" t="s">
+        <v>25</v>
+      </c>
       <c r="L72" s="35"/>
       <c r="M72" s="35"/>
       <c r="N72" s="35"/>
@@ -5057,7 +5189,7 @@
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G73" s="37" t="s">
         <v>20</v>
@@ -5071,7 +5203,9 @@
       <c r="J73" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K73" s="35"/>
+      <c r="K73" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L73" s="35"/>
       <c r="M73" s="35"/>
       <c r="N73" s="35"/>
@@ -5109,7 +5243,7 @@
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G74" s="37" t="s">
         <v>25</v>
@@ -5123,7 +5257,9 @@
       <c r="J74" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K74" s="35"/>
+      <c r="K74" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L74" s="35"/>
       <c r="M74" s="35"/>
       <c r="N74" s="35"/>
@@ -5161,7 +5297,7 @@
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G75" s="37" t="s">
         <v>20</v>
@@ -5175,7 +5311,9 @@
       <c r="J75" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K75" s="35"/>
+      <c r="K75" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L75" s="35"/>
       <c r="M75" s="35"/>
       <c r="N75" s="35"/>
@@ -5213,7 +5351,7 @@
       </c>
       <c r="F76" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G76" s="37" t="s">
         <v>25</v>
@@ -5227,7 +5365,9 @@
       <c r="J76" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K76" s="35"/>
+      <c r="K76" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L76" s="35"/>
       <c r="M76" s="35"/>
       <c r="N76" s="35"/>
@@ -5265,7 +5405,7 @@
       </c>
       <c r="F77" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G77" s="37" t="s">
         <v>20</v>
@@ -5279,7 +5419,9 @@
       <c r="J77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K77" s="35"/>
+      <c r="K77" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L77" s="35"/>
       <c r="M77" s="35"/>
       <c r="N77" s="35"/>
@@ -5317,7 +5459,7 @@
       </c>
       <c r="F78" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G78" s="37" t="s">
         <v>20</v>
@@ -5331,7 +5473,9 @@
       <c r="J78" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K78" s="35"/>
+      <c r="K78" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L78" s="35"/>
       <c r="M78" s="35"/>
       <c r="N78" s="35"/>
@@ -5369,7 +5513,7 @@
       </c>
       <c r="F79" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G79" s="37" t="s">
         <v>20</v>
@@ -5383,7 +5527,9 @@
       <c r="J79" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K79" s="35"/>
+      <c r="K79" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L79" s="35"/>
       <c r="M79" s="35"/>
       <c r="N79" s="35"/>
@@ -5421,7 +5567,7 @@
       </c>
       <c r="F80" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G80" s="37" t="s">
         <v>20</v>
@@ -5435,7 +5581,9 @@
       <c r="J80" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K80" s="35"/>
+      <c r="K80" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L80" s="35"/>
       <c r="M80" s="35"/>
       <c r="N80" s="35"/>
@@ -5469,7 +5617,7 @@
       </c>
       <c r="E81" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" s="34">
         <f t="shared" si="2"/>
@@ -5487,7 +5635,9 @@
       <c r="J81" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K81" s="35"/>
+      <c r="K81" s="29" t="s">
+        <v>25</v>
+      </c>
       <c r="L81" s="35"/>
       <c r="M81" s="35"/>
       <c r="N81" s="35"/>
@@ -5525,7 +5675,7 @@
       </c>
       <c r="F82" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G82" s="37" t="s">
         <v>20</v>
@@ -5539,7 +5689,9 @@
       <c r="J82" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K82" s="35"/>
+      <c r="K82" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L82" s="35"/>
       <c r="M82" s="35"/>
       <c r="N82" s="35"/>

--- a/attendance-files/SM-II/SM-II (F) Attendance Sheet.xlsx
+++ b/attendance-files/SM-II/SM-II (F) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="172">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1228,9 +1228,11 @@
     <col customWidth="1" min="1" max="1" width="7.13"/>
     <col customWidth="1" min="2" max="2" width="19.63"/>
     <col customWidth="1" min="3" max="3" width="30.25"/>
-    <col customWidth="1" min="4" max="4" width="7.25"/>
-    <col customWidth="1" min="5" max="6" width="12.75"/>
-    <col customWidth="1" min="7" max="26" width="10.75"/>
+    <col customWidth="1" hidden="1" min="4" max="4" width="7.25"/>
+    <col customWidth="1" hidden="1" min="5" max="5" width="12.75"/>
+    <col customWidth="1" hidden="1" min="6" max="6" width="11.0"/>
+    <col customWidth="1" hidden="1" min="7" max="14" width="10.75"/>
+    <col customWidth="1" min="15" max="26" width="10.75"/>
     <col customWidth="1" min="27" max="27" width="9.0"/>
   </cols>
   <sheetData>
@@ -1625,7 +1627,7 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1642,8 +1644,12 @@
       <c r="K7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
+      <c r="L7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N7" s="30"/>
       <c r="O7" s="30"/>
       <c r="P7" s="30"/>
@@ -1679,7 +1685,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>20</v>
@@ -1696,8 +1702,12 @@
       <c r="K8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
+      <c r="L8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N8" s="35"/>
       <c r="O8" s="35"/>
       <c r="P8" s="35"/>
@@ -1733,7 +1743,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>25</v>
@@ -1750,8 +1760,12 @@
       <c r="K9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
+      <c r="L9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N9" s="35"/>
       <c r="O9" s="35"/>
       <c r="P9" s="35"/>
@@ -1783,11 +1797,11 @@
       </c>
       <c r="E10" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>20</v>
@@ -1804,8 +1818,12 @@
       <c r="K10" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
+      <c r="L10" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N10" s="35"/>
       <c r="O10" s="35"/>
       <c r="P10" s="35"/>
@@ -1841,7 +1859,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>25</v>
@@ -1858,8 +1876,12 @@
       <c r="K11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
+      <c r="L11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N11" s="35"/>
       <c r="O11" s="35"/>
       <c r="P11" s="35"/>
@@ -1895,7 +1917,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>20</v>
@@ -1912,8 +1934,12 @@
       <c r="K12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
+      <c r="L12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N12" s="35"/>
       <c r="O12" s="35"/>
       <c r="P12" s="35"/>
@@ -1949,7 +1975,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>20</v>
@@ -1966,8 +1992,12 @@
       <c r="K13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
+      <c r="L13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N13" s="35"/>
       <c r="O13" s="35"/>
       <c r="P13" s="35"/>
@@ -2003,7 +2033,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>20</v>
@@ -2020,8 +2050,12 @@
       <c r="K14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
+      <c r="L14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N14" s="35"/>
       <c r="O14" s="35"/>
       <c r="P14" s="35"/>
@@ -2053,11 +2087,11 @@
       </c>
       <c r="E15" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>20</v>
@@ -2074,8 +2108,12 @@
       <c r="K15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
+      <c r="L15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>25</v>
+      </c>
       <c r="N15" s="35"/>
       <c r="O15" s="35"/>
       <c r="P15" s="35"/>
@@ -2111,7 +2149,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>20</v>
@@ -2128,8 +2166,12 @@
       <c r="K16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
+      <c r="L16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N16" s="35"/>
       <c r="O16" s="35"/>
       <c r="P16" s="35"/>
@@ -2165,7 +2207,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>25</v>
@@ -2182,8 +2224,12 @@
       <c r="K17" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
+      <c r="L17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N17" s="35"/>
       <c r="O17" s="35"/>
       <c r="P17" s="35"/>
@@ -2219,7 +2265,7 @@
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>25</v>
@@ -2236,8 +2282,12 @@
       <c r="K18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
+      <c r="L18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N18" s="35"/>
       <c r="O18" s="35"/>
       <c r="P18" s="35"/>
@@ -2273,7 +2323,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G19" s="37" t="s">
         <v>25</v>
@@ -2290,8 +2340,12 @@
       <c r="K19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
+      <c r="L19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N19" s="35"/>
       <c r="O19" s="35"/>
       <c r="P19" s="35"/>
@@ -2327,7 +2381,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G20" s="37" t="s">
         <v>25</v>
@@ -2344,8 +2398,12 @@
       <c r="K20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
+      <c r="L20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N20" s="35"/>
       <c r="O20" s="35"/>
       <c r="P20" s="35"/>
@@ -2381,7 +2439,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G21" s="37" t="s">
         <v>25</v>
@@ -2398,8 +2456,12 @@
       <c r="K21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
+      <c r="L21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N21" s="35"/>
       <c r="O21" s="35"/>
       <c r="P21" s="35"/>
@@ -2435,7 +2497,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>20</v>
@@ -2452,8 +2514,12 @@
       <c r="K22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
+      <c r="L22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N22" s="35"/>
       <c r="O22" s="35"/>
       <c r="P22" s="35"/>
@@ -2489,7 +2555,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G23" s="37" t="s">
         <v>20</v>
@@ -2506,8 +2572,12 @@
       <c r="K23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
+      <c r="L23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N23" s="35"/>
       <c r="O23" s="35"/>
       <c r="P23" s="35"/>
@@ -2543,7 +2613,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G24" s="37" t="s">
         <v>20</v>
@@ -2560,8 +2630,12 @@
       <c r="K24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
+      <c r="L24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N24" s="35"/>
       <c r="O24" s="35"/>
       <c r="P24" s="35"/>
@@ -2597,7 +2671,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G25" s="37" t="s">
         <v>20</v>
@@ -2614,8 +2688,12 @@
       <c r="K25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
+      <c r="L25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N25" s="35"/>
       <c r="O25" s="35"/>
       <c r="P25" s="35"/>
@@ -2651,7 +2729,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G26" s="37" t="s">
         <v>20</v>
@@ -2668,8 +2746,12 @@
       <c r="K26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
+      <c r="L26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N26" s="35"/>
       <c r="O26" s="35"/>
       <c r="P26" s="35"/>
@@ -2705,7 +2787,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G27" s="37" t="s">
         <v>25</v>
@@ -2722,8 +2804,12 @@
       <c r="K27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
+      <c r="L27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N27" s="35"/>
       <c r="O27" s="35"/>
       <c r="P27" s="35"/>
@@ -2759,7 +2845,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G28" s="37" t="s">
         <v>25</v>
@@ -2776,8 +2862,12 @@
       <c r="K28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
+      <c r="L28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N28" s="35"/>
       <c r="O28" s="35"/>
       <c r="P28" s="35"/>
@@ -2813,7 +2903,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G29" s="37" t="s">
         <v>20</v>
@@ -2830,8 +2920,12 @@
       <c r="K29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
+      <c r="L29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N29" s="35"/>
       <c r="O29" s="35"/>
       <c r="P29" s="35"/>
@@ -2867,7 +2961,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G30" s="37" t="s">
         <v>25</v>
@@ -2884,8 +2978,12 @@
       <c r="K30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
+      <c r="L30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N30" s="35"/>
       <c r="O30" s="35"/>
       <c r="P30" s="35"/>
@@ -2917,11 +3015,11 @@
       </c>
       <c r="E31" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G31" s="37" t="s">
         <v>25</v>
@@ -2938,8 +3036,12 @@
       <c r="K31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
+      <c r="L31" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N31" s="35"/>
       <c r="O31" s="35"/>
       <c r="P31" s="35"/>
@@ -2975,7 +3077,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G32" s="37" t="s">
         <v>25</v>
@@ -2992,8 +3094,12 @@
       <c r="K32" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
+      <c r="L32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N32" s="35"/>
       <c r="O32" s="35"/>
       <c r="P32" s="35"/>
@@ -3025,11 +3131,11 @@
       </c>
       <c r="E33" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G33" s="37" t="s">
         <v>20</v>
@@ -3046,8 +3152,12 @@
       <c r="K33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
+      <c r="L33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="29" t="s">
+        <v>25</v>
+      </c>
       <c r="N33" s="35"/>
       <c r="O33" s="35"/>
       <c r="P33" s="35"/>
@@ -3079,11 +3189,11 @@
       </c>
       <c r="E34" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G34" s="37" t="s">
         <v>20</v>
@@ -3100,8 +3210,12 @@
       <c r="K34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
+      <c r="L34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="29" t="s">
+        <v>25</v>
+      </c>
       <c r="N34" s="35"/>
       <c r="O34" s="35"/>
       <c r="P34" s="35"/>
@@ -3137,7 +3251,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G35" s="37" t="s">
         <v>20</v>
@@ -3154,8 +3268,12 @@
       <c r="K35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
+      <c r="L35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N35" s="35"/>
       <c r="O35" s="35"/>
       <c r="P35" s="35"/>
@@ -3191,7 +3309,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>25</v>
@@ -3208,8 +3326,12 @@
       <c r="K36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
+      <c r="L36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N36" s="35"/>
       <c r="O36" s="35"/>
       <c r="P36" s="35"/>
@@ -3245,7 +3367,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G37" s="37" t="s">
         <v>20</v>
@@ -3262,8 +3384,12 @@
       <c r="K37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
+      <c r="L37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N37" s="35"/>
       <c r="O37" s="35"/>
       <c r="P37" s="35"/>
@@ -3299,7 +3425,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G38" s="37" t="s">
         <v>20</v>
@@ -3316,8 +3442,12 @@
       <c r="K38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
+      <c r="L38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N38" s="35"/>
       <c r="O38" s="35"/>
       <c r="P38" s="35"/>
@@ -3353,7 +3483,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G39" s="37" t="s">
         <v>25</v>
@@ -3370,8 +3500,12 @@
       <c r="K39" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
+      <c r="L39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N39" s="35"/>
       <c r="O39" s="35"/>
       <c r="P39" s="35"/>
@@ -3407,7 +3541,7 @@
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G40" s="37" t="s">
         <v>20</v>
@@ -3424,8 +3558,12 @@
       <c r="K40" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
+      <c r="L40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N40" s="35"/>
       <c r="O40" s="35"/>
       <c r="P40" s="35"/>
@@ -3461,7 +3599,7 @@
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G41" s="37" t="s">
         <v>20</v>
@@ -3478,8 +3616,12 @@
       <c r="K41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
+      <c r="L41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N41" s="35"/>
       <c r="O41" s="35"/>
       <c r="P41" s="35"/>
@@ -3511,11 +3653,11 @@
       </c>
       <c r="E42" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G42" s="37" t="s">
         <v>25</v>
@@ -3532,8 +3674,12 @@
       <c r="K42" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
+      <c r="L42" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M42" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N42" s="35"/>
       <c r="O42" s="35"/>
       <c r="P42" s="35"/>
@@ -3569,7 +3715,7 @@
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G43" s="37" t="s">
         <v>25</v>
@@ -3586,8 +3732,12 @@
       <c r="K43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
+      <c r="L43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N43" s="35"/>
       <c r="O43" s="35"/>
       <c r="P43" s="35"/>
@@ -3623,7 +3773,7 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G44" s="37" t="s">
         <v>20</v>
@@ -3640,8 +3790,12 @@
       <c r="K44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35"/>
+      <c r="L44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N44" s="35"/>
       <c r="O44" s="35"/>
       <c r="P44" s="35"/>
@@ -3673,11 +3827,11 @@
       </c>
       <c r="E45" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G45" s="37" t="s">
         <v>25</v>
@@ -3694,8 +3848,12 @@
       <c r="K45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
+      <c r="L45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" s="29" t="s">
+        <v>25</v>
+      </c>
       <c r="N45" s="35"/>
       <c r="O45" s="35"/>
       <c r="P45" s="35"/>
@@ -3731,7 +3889,7 @@
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G46" s="37" t="s">
         <v>25</v>
@@ -3748,8 +3906,12 @@
       <c r="K46" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35"/>
+      <c r="L46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N46" s="35"/>
       <c r="O46" s="35"/>
       <c r="P46" s="35"/>
@@ -3785,7 +3947,7 @@
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G47" s="37" t="s">
         <v>25</v>
@@ -3802,8 +3964,12 @@
       <c r="K47" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="L47" s="35"/>
-      <c r="M47" s="35"/>
+      <c r="L47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N47" s="35"/>
       <c r="O47" s="35"/>
       <c r="P47" s="35"/>
@@ -3839,7 +4005,7 @@
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G48" s="37" t="s">
         <v>20</v>
@@ -3856,8 +4022,12 @@
       <c r="K48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
+      <c r="L48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N48" s="35"/>
       <c r="O48" s="35"/>
       <c r="P48" s="35"/>
@@ -3889,11 +4059,11 @@
       </c>
       <c r="E49" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G49" s="37" t="s">
         <v>20</v>
@@ -3910,8 +4080,12 @@
       <c r="K49" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
+      <c r="L49" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M49" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N49" s="35"/>
       <c r="O49" s="35"/>
       <c r="P49" s="35"/>
@@ -3947,7 +4121,7 @@
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G50" s="37" t="s">
         <v>25</v>
@@ -3964,8 +4138,12 @@
       <c r="K50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
+      <c r="L50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M50" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N50" s="35"/>
       <c r="O50" s="35"/>
       <c r="P50" s="35"/>
@@ -4001,7 +4179,7 @@
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G51" s="37" t="s">
         <v>25</v>
@@ -4018,8 +4196,12 @@
       <c r="K51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
+      <c r="L51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N51" s="35"/>
       <c r="O51" s="35"/>
       <c r="P51" s="35"/>
@@ -4055,7 +4237,7 @@
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G52" s="37" t="s">
         <v>20</v>
@@ -4072,8 +4254,12 @@
       <c r="K52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L52" s="35"/>
-      <c r="M52" s="35"/>
+      <c r="L52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N52" s="35"/>
       <c r="O52" s="35"/>
       <c r="P52" s="35"/>
@@ -4109,7 +4295,7 @@
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G53" s="37" t="s">
         <v>25</v>
@@ -4126,8 +4312,12 @@
       <c r="K53" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
+      <c r="L53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M53" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N53" s="35"/>
       <c r="O53" s="35"/>
       <c r="P53" s="35"/>
@@ -4163,7 +4353,7 @@
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G54" s="37" t="s">
         <v>20</v>
@@ -4180,8 +4370,12 @@
       <c r="K54" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
+      <c r="L54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N54" s="35"/>
       <c r="O54" s="35"/>
       <c r="P54" s="35"/>
@@ -4217,7 +4411,7 @@
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G55" s="37" t="s">
         <v>25</v>
@@ -4234,8 +4428,12 @@
       <c r="K55" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
+      <c r="L55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M55" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N55" s="35"/>
       <c r="O55" s="35"/>
       <c r="P55" s="35"/>
@@ -4267,11 +4465,11 @@
       </c>
       <c r="E56" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G56" s="37" t="s">
         <v>20</v>
@@ -4288,8 +4486,12 @@
       <c r="K56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L56" s="35"/>
-      <c r="M56" s="35"/>
+      <c r="L56" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M56" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N56" s="35"/>
       <c r="O56" s="35"/>
       <c r="P56" s="35"/>
@@ -4325,7 +4527,7 @@
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G57" s="37" t="s">
         <v>25</v>
@@ -4342,8 +4544,12 @@
       <c r="K57" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="L57" s="35"/>
-      <c r="M57" s="35"/>
+      <c r="L57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M57" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N57" s="35"/>
       <c r="O57" s="35"/>
       <c r="P57" s="35"/>
@@ -4379,7 +4585,7 @@
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G58" s="37" t="s">
         <v>20</v>
@@ -4396,8 +4602,12 @@
       <c r="K58" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L58" s="35"/>
-      <c r="M58" s="35"/>
+      <c r="L58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M58" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N58" s="35"/>
       <c r="O58" s="35"/>
       <c r="P58" s="35"/>
@@ -4433,7 +4643,7 @@
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G59" s="37" t="s">
         <v>25</v>
@@ -4450,8 +4660,12 @@
       <c r="K59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
+      <c r="L59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N59" s="35"/>
       <c r="O59" s="35"/>
       <c r="P59" s="35"/>
@@ -4487,7 +4701,7 @@
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G60" s="37" t="s">
         <v>20</v>
@@ -4504,8 +4718,12 @@
       <c r="K60" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L60" s="35"/>
-      <c r="M60" s="35"/>
+      <c r="L60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M60" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N60" s="35"/>
       <c r="O60" s="35"/>
       <c r="P60" s="35"/>
@@ -4541,7 +4759,7 @@
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G61" s="37" t="s">
         <v>20</v>
@@ -4558,8 +4776,12 @@
       <c r="K61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L61" s="35"/>
-      <c r="M61" s="35"/>
+      <c r="L61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N61" s="35"/>
       <c r="O61" s="35"/>
       <c r="P61" s="35"/>
@@ -4595,7 +4817,7 @@
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G62" s="37" t="s">
         <v>20</v>
@@ -4612,8 +4834,12 @@
       <c r="K62" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L62" s="35"/>
-      <c r="M62" s="35"/>
+      <c r="L62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M62" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N62" s="35"/>
       <c r="O62" s="35"/>
       <c r="P62" s="35"/>
@@ -4649,7 +4875,7 @@
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G63" s="37" t="s">
         <v>20</v>
@@ -4666,8 +4892,12 @@
       <c r="K63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L63" s="35"/>
-      <c r="M63" s="35"/>
+      <c r="L63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M63" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N63" s="35"/>
       <c r="O63" s="35"/>
       <c r="P63" s="35"/>
@@ -4699,12 +4929,12 @@
       </c>
       <c r="E64" s="26">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F64" s="34">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F64" s="34">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
       <c r="G64" s="37" t="s">
         <v>25</v>
       </c>
@@ -4720,8 +4950,12 @@
       <c r="K64" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
+      <c r="L64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" s="29" t="s">
+        <v>25</v>
+      </c>
       <c r="N64" s="35"/>
       <c r="O64" s="35"/>
       <c r="P64" s="35"/>
@@ -4757,7 +4991,7 @@
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G65" s="37" t="s">
         <v>20</v>
@@ -4774,8 +5008,12 @@
       <c r="K65" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L65" s="35"/>
-      <c r="M65" s="35"/>
+      <c r="L65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M65" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N65" s="35"/>
       <c r="O65" s="35"/>
       <c r="P65" s="35"/>
@@ -4811,7 +5049,7 @@
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G66" s="37" t="s">
         <v>25</v>
@@ -4828,8 +5066,12 @@
       <c r="K66" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="L66" s="35"/>
-      <c r="M66" s="35"/>
+      <c r="L66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N66" s="35"/>
       <c r="O66" s="35"/>
       <c r="P66" s="35"/>
@@ -4865,7 +5107,7 @@
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G67" s="37" t="s">
         <v>25</v>
@@ -4882,8 +5124,12 @@
       <c r="K67" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="L67" s="35"/>
-      <c r="M67" s="35"/>
+      <c r="L67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M67" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N67" s="35"/>
       <c r="O67" s="35"/>
       <c r="P67" s="35"/>
@@ -4919,7 +5165,7 @@
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G68" s="37" t="s">
         <v>20</v>
@@ -4936,8 +5182,12 @@
       <c r="K68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L68" s="35"/>
-      <c r="M68" s="35"/>
+      <c r="L68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M68" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N68" s="35"/>
       <c r="O68" s="35"/>
       <c r="P68" s="35"/>
@@ -4973,7 +5223,7 @@
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G69" s="37" t="s">
         <v>25</v>
@@ -4990,8 +5240,12 @@
       <c r="K69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L69" s="35"/>
-      <c r="M69" s="35"/>
+      <c r="L69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M69" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N69" s="35"/>
       <c r="O69" s="35"/>
       <c r="P69" s="35"/>
@@ -5027,7 +5281,7 @@
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G70" s="37" t="s">
         <v>25</v>
@@ -5044,8 +5298,12 @@
       <c r="K70" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L70" s="35"/>
-      <c r="M70" s="35"/>
+      <c r="L70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M70" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N70" s="35"/>
       <c r="O70" s="35"/>
       <c r="P70" s="35"/>
@@ -5081,7 +5339,7 @@
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G71" s="37" t="s">
         <v>20</v>
@@ -5098,8 +5356,12 @@
       <c r="K71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L71" s="35"/>
-      <c r="M71" s="35"/>
+      <c r="L71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M71" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N71" s="35"/>
       <c r="O71" s="35"/>
       <c r="P71" s="35"/>
@@ -5135,7 +5397,7 @@
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G72" s="37" t="s">
         <v>25</v>
@@ -5152,8 +5414,12 @@
       <c r="K72" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="L72" s="35"/>
-      <c r="M72" s="35"/>
+      <c r="L72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M72" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N72" s="35"/>
       <c r="O72" s="35"/>
       <c r="P72" s="35"/>
@@ -5189,7 +5455,7 @@
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G73" s="37" t="s">
         <v>20</v>
@@ -5206,8 +5472,12 @@
       <c r="K73" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L73" s="35"/>
-      <c r="M73" s="35"/>
+      <c r="L73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M73" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N73" s="35"/>
       <c r="O73" s="35"/>
       <c r="P73" s="35"/>
@@ -5243,7 +5513,7 @@
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G74" s="37" t="s">
         <v>25</v>
@@ -5260,8 +5530,12 @@
       <c r="K74" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L74" s="35"/>
-      <c r="M74" s="35"/>
+      <c r="L74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M74" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N74" s="35"/>
       <c r="O74" s="35"/>
       <c r="P74" s="35"/>
@@ -5297,7 +5571,7 @@
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G75" s="37" t="s">
         <v>20</v>
@@ -5314,8 +5588,12 @@
       <c r="K75" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L75" s="35"/>
-      <c r="M75" s="35"/>
+      <c r="L75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M75" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N75" s="35"/>
       <c r="O75" s="35"/>
       <c r="P75" s="35"/>
@@ -5347,11 +5625,11 @@
       </c>
       <c r="E76" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F76" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G76" s="37" t="s">
         <v>25</v>
@@ -5368,8 +5646,12 @@
       <c r="K76" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L76" s="35"/>
-      <c r="M76" s="35"/>
+      <c r="L76" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M76" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N76" s="35"/>
       <c r="O76" s="35"/>
       <c r="P76" s="35"/>
@@ -5405,7 +5687,7 @@
       </c>
       <c r="F77" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G77" s="37" t="s">
         <v>20</v>
@@ -5422,8 +5704,12 @@
       <c r="K77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L77" s="35"/>
-      <c r="M77" s="35"/>
+      <c r="L77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M77" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N77" s="35"/>
       <c r="O77" s="35"/>
       <c r="P77" s="35"/>
@@ -5459,7 +5745,7 @@
       </c>
       <c r="F78" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G78" s="37" t="s">
         <v>20</v>
@@ -5476,8 +5762,12 @@
       <c r="K78" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L78" s="35"/>
-      <c r="M78" s="35"/>
+      <c r="L78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M78" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N78" s="35"/>
       <c r="O78" s="35"/>
       <c r="P78" s="35"/>
@@ -5513,7 +5803,7 @@
       </c>
       <c r="F79" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G79" s="37" t="s">
         <v>20</v>
@@ -5530,8 +5820,12 @@
       <c r="K79" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L79" s="35"/>
-      <c r="M79" s="35"/>
+      <c r="L79" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M79" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N79" s="35"/>
       <c r="O79" s="35"/>
       <c r="P79" s="35"/>
@@ -5567,7 +5861,7 @@
       </c>
       <c r="F80" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G80" s="37" t="s">
         <v>20</v>
@@ -5584,8 +5878,12 @@
       <c r="K80" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L80" s="35"/>
-      <c r="M80" s="35"/>
+      <c r="L80" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M80" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N80" s="35"/>
       <c r="O80" s="35"/>
       <c r="P80" s="35"/>
@@ -5621,7 +5919,7 @@
       </c>
       <c r="F81" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G81" s="37" t="s">
         <v>20</v>
@@ -5638,8 +5936,12 @@
       <c r="K81" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="L81" s="35"/>
-      <c r="M81" s="35"/>
+      <c r="L81" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M81" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N81" s="35"/>
       <c r="O81" s="35"/>
       <c r="P81" s="35"/>
@@ -5675,7 +5977,7 @@
       </c>
       <c r="F82" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G82" s="37" t="s">
         <v>20</v>
@@ -5692,8 +5994,12 @@
       <c r="K82" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L82" s="35"/>
-      <c r="M82" s="35"/>
+      <c r="L82" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M82" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N82" s="35"/>
       <c r="O82" s="35"/>
       <c r="P82" s="35"/>

--- a/attendance-files/SM-II/SM-II (F) Attendance Sheet.xlsx
+++ b/attendance-files/SM-II/SM-II (F) Attendance Sheet.xlsx
@@ -1231,8 +1231,8 @@
     <col customWidth="1" hidden="1" min="4" max="4" width="7.25"/>
     <col customWidth="1" hidden="1" min="5" max="5" width="12.75"/>
     <col customWidth="1" hidden="1" min="6" max="6" width="11.0"/>
-    <col customWidth="1" hidden="1" min="7" max="14" width="10.75"/>
-    <col customWidth="1" min="15" max="26" width="10.75"/>
+    <col customWidth="1" hidden="1" min="7" max="16" width="10.75"/>
+    <col customWidth="1" min="17" max="26" width="10.75"/>
     <col customWidth="1" min="27" max="27" width="9.0"/>
   </cols>
   <sheetData>

--- a/attendance-files/SM-II/SM-II (F) Attendance Sheet.xlsx
+++ b/attendance-files/SM-II/SM-II (F) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="172">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -81,6 +81,9 @@
     <t>P</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>2024PGP011</t>
   </si>
   <si>
@@ -91,9 +94,6 @@
   </si>
   <si>
     <t>Abhishek Kumar</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>2021IPM008</t>
@@ -1231,8 +1231,8 @@
     <col customWidth="1" hidden="1" min="4" max="4" width="7.25"/>
     <col customWidth="1" hidden="1" min="5" max="5" width="12.75"/>
     <col customWidth="1" hidden="1" min="6" max="6" width="11.0"/>
-    <col customWidth="1" hidden="1" min="7" max="16" width="10.75"/>
-    <col customWidth="1" min="17" max="26" width="10.75"/>
+    <col customWidth="1" hidden="1" min="7" max="17" width="10.75"/>
+    <col customWidth="1" min="18" max="26" width="10.75"/>
     <col customWidth="1" min="27" max="27" width="9.0"/>
   </cols>
   <sheetData>
@@ -1623,11 +1623,11 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1650,10 +1650,18 @@
       <c r="M7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
+      <c r="N7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="R7" s="30"/>
       <c r="S7" s="30"/>
       <c r="T7" s="30"/>
@@ -1671,21 +1679,21 @@
         <v>2</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>20</v>
@@ -1708,10 +1716,18 @@
       <c r="M8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
+      <c r="N8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R8" s="35"/>
       <c r="S8" s="35"/>
       <c r="T8" s="35"/>
@@ -1729,10 +1745,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>9</v>
@@ -1743,10 +1759,10 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H9" s="29" t="s">
         <v>20</v>
@@ -1766,10 +1782,18 @@
       <c r="M9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
+      <c r="N9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R9" s="35"/>
       <c r="S9" s="35"/>
       <c r="T9" s="35"/>
@@ -1797,11 +1821,11 @@
       </c>
       <c r="E10" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>20</v>
@@ -1816,18 +1840,26 @@
         <v>20</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
+      <c r="N10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R10" s="35"/>
       <c r="S10" s="35"/>
       <c r="T10" s="35"/>
@@ -1859,10 +1891,10 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H11" s="29" t="s">
         <v>20</v>
@@ -1882,10 +1914,18 @@
       <c r="M11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
+      <c r="N11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R11" s="35"/>
       <c r="S11" s="35"/>
       <c r="T11" s="35"/>
@@ -1917,7 +1957,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>20</v>
@@ -1940,10 +1980,18 @@
       <c r="M12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
+      <c r="N12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R12" s="35"/>
       <c r="S12" s="35"/>
       <c r="T12" s="35"/>
@@ -1975,7 +2023,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>20</v>
@@ -1998,10 +2046,18 @@
       <c r="M13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
+      <c r="N13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R13" s="35"/>
       <c r="S13" s="35"/>
       <c r="T13" s="35"/>
@@ -2033,7 +2089,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>20</v>
@@ -2056,10 +2112,18 @@
       <c r="M14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
+      <c r="N14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R14" s="35"/>
       <c r="S14" s="35"/>
       <c r="T14" s="35"/>
@@ -2087,11 +2151,11 @@
       </c>
       <c r="E15" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>20</v>
@@ -2112,12 +2176,20 @@
         <v>20</v>
       </c>
       <c r="M15" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
+        <v>21</v>
+      </c>
+      <c r="N15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="R15" s="35"/>
       <c r="S15" s="35"/>
       <c r="T15" s="35"/>
@@ -2149,7 +2221,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>20</v>
@@ -2172,10 +2244,18 @@
       <c r="M16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
+      <c r="N16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R16" s="35"/>
       <c r="S16" s="35"/>
       <c r="T16" s="35"/>
@@ -2203,14 +2283,14 @@
       </c>
       <c r="E17" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H17" s="36" t="s">
         <v>20</v>
@@ -2222,7 +2302,7 @@
         <v>20</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L17" s="29" t="s">
         <v>20</v>
@@ -2230,10 +2310,18 @@
       <c r="M17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
+      <c r="N17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="R17" s="35"/>
       <c r="S17" s="35"/>
       <c r="T17" s="35"/>
@@ -2261,14 +2349,14 @@
       </c>
       <c r="E18" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H18" s="36" t="s">
         <v>20</v>
@@ -2288,10 +2376,18 @@
       <c r="M18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
+      <c r="N18" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="R18" s="35"/>
       <c r="S18" s="35"/>
       <c r="T18" s="35"/>
@@ -2323,13 +2419,13 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G19" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I19" s="29" t="s">
         <v>20</v>
@@ -2346,10 +2442,18 @@
       <c r="M19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
+      <c r="N19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R19" s="35"/>
       <c r="S19" s="35"/>
       <c r="T19" s="35"/>
@@ -2377,14 +2481,14 @@
       </c>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H20" s="36" t="s">
         <v>20</v>
@@ -2404,10 +2508,18 @@
       <c r="M20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
+      <c r="N20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="R20" s="35"/>
       <c r="S20" s="35"/>
       <c r="T20" s="35"/>
@@ -2439,13 +2551,13 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I21" s="29" t="s">
         <v>20</v>
@@ -2462,10 +2574,18 @@
       <c r="M21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
+      <c r="N21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R21" s="35"/>
       <c r="S21" s="35"/>
       <c r="T21" s="35"/>
@@ -2497,13 +2617,13 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>20</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I22" s="29" t="s">
         <v>20</v>
@@ -2520,10 +2640,18 @@
       <c r="M22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
+      <c r="N22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R22" s="35"/>
       <c r="S22" s="35"/>
       <c r="T22" s="35"/>
@@ -2555,7 +2683,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G23" s="37" t="s">
         <v>20</v>
@@ -2578,10 +2706,18 @@
       <c r="M23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
+      <c r="N23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R23" s="35"/>
       <c r="S23" s="35"/>
       <c r="T23" s="35"/>
@@ -2609,11 +2745,11 @@
       </c>
       <c r="E24" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G24" s="37" t="s">
         <v>20</v>
@@ -2636,10 +2772,18 @@
       <c r="M24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
+      <c r="N24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R24" s="35"/>
       <c r="S24" s="35"/>
       <c r="T24" s="35"/>
@@ -2667,11 +2811,11 @@
       </c>
       <c r="E25" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G25" s="37" t="s">
         <v>20</v>
@@ -2694,10 +2838,18 @@
       <c r="M25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
+      <c r="N25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="R25" s="35"/>
       <c r="S25" s="35"/>
       <c r="T25" s="35"/>
@@ -2725,11 +2877,11 @@
       </c>
       <c r="E26" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G26" s="37" t="s">
         <v>20</v>
@@ -2752,10 +2904,18 @@
       <c r="M26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
+      <c r="N26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R26" s="35"/>
       <c r="S26" s="35"/>
       <c r="T26" s="35"/>
@@ -2783,17 +2943,17 @@
       </c>
       <c r="E27" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I27" s="29" t="s">
         <v>20</v>
@@ -2810,10 +2970,18 @@
       <c r="M27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
+      <c r="N27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="R27" s="35"/>
       <c r="S27" s="35"/>
       <c r="T27" s="35"/>
@@ -2841,14 +3009,14 @@
       </c>
       <c r="E28" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G28" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H28" s="36" t="s">
         <v>20</v>
@@ -2857,7 +3025,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K28" s="29" t="s">
         <v>20</v>
@@ -2868,10 +3036,18 @@
       <c r="M28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
+      <c r="N28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="R28" s="35"/>
       <c r="S28" s="35"/>
       <c r="T28" s="35"/>
@@ -2899,20 +3075,20 @@
       </c>
       <c r="E29" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G29" s="37" t="s">
         <v>20</v>
       </c>
       <c r="H29" s="36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I29" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J29" s="29" t="s">
         <v>20</v>
@@ -2926,10 +3102,18 @@
       <c r="M29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
+      <c r="N29" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R29" s="35"/>
       <c r="S29" s="35"/>
       <c r="T29" s="35"/>
@@ -2957,14 +3141,14 @@
       </c>
       <c r="E30" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G30" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H30" s="36" t="s">
         <v>20</v>
@@ -2984,10 +3168,18 @@
       <c r="M30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
+      <c r="N30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="R30" s="35"/>
       <c r="S30" s="35"/>
       <c r="T30" s="35"/>
@@ -3015,14 +3207,14 @@
       </c>
       <c r="E31" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G31" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H31" s="36" t="s">
         <v>20</v>
@@ -3037,15 +3229,23 @@
         <v>20</v>
       </c>
       <c r="L31" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
+      <c r="N31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="R31" s="35"/>
       <c r="S31" s="35"/>
       <c r="T31" s="35"/>
@@ -3073,14 +3273,14 @@
       </c>
       <c r="E32" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G32" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H32" s="36" t="s">
         <v>20</v>
@@ -3092,7 +3292,7 @@
         <v>20</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L32" s="29" t="s">
         <v>20</v>
@@ -3100,10 +3300,18 @@
       <c r="M32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
+      <c r="N32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q32" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R32" s="35"/>
       <c r="S32" s="35"/>
       <c r="T32" s="35"/>
@@ -3131,11 +3339,11 @@
       </c>
       <c r="E33" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G33" s="37" t="s">
         <v>20</v>
@@ -3156,12 +3364,20 @@
         <v>20</v>
       </c>
       <c r="M33" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
+        <v>21</v>
+      </c>
+      <c r="N33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="R33" s="35"/>
       <c r="S33" s="35"/>
       <c r="T33" s="35"/>
@@ -3193,13 +3409,13 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G34" s="37" t="s">
         <v>20</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I34" s="29" t="s">
         <v>20</v>
@@ -3214,12 +3430,20 @@
         <v>20</v>
       </c>
       <c r="M34" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
+        <v>21</v>
+      </c>
+      <c r="N34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R34" s="35"/>
       <c r="S34" s="35"/>
       <c r="T34" s="35"/>
@@ -3247,17 +3471,17 @@
       </c>
       <c r="E35" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G35" s="37" t="s">
         <v>20</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I35" s="29" t="s">
         <v>20</v>
@@ -3274,10 +3498,18 @@
       <c r="M35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
+      <c r="N35" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R35" s="35"/>
       <c r="S35" s="35"/>
       <c r="T35" s="35"/>
@@ -3305,17 +3537,17 @@
       </c>
       <c r="E36" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G36" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I36" s="29" t="s">
         <v>20</v>
@@ -3332,10 +3564,18 @@
       <c r="M36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
+      <c r="N36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="R36" s="35"/>
       <c r="S36" s="35"/>
       <c r="T36" s="35"/>
@@ -3363,11 +3603,11 @@
       </c>
       <c r="E37" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G37" s="37" t="s">
         <v>20</v>
@@ -3390,10 +3630,18 @@
       <c r="M37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
+      <c r="N37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="R37" s="35"/>
       <c r="S37" s="35"/>
       <c r="T37" s="35"/>
@@ -3425,16 +3673,16 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G38" s="37" t="s">
         <v>20</v>
       </c>
       <c r="H38" s="36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I38" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J38" s="29" t="s">
         <v>20</v>
@@ -3448,10 +3696,18 @@
       <c r="M38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
+      <c r="N38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R38" s="35"/>
       <c r="S38" s="35"/>
       <c r="T38" s="35"/>
@@ -3483,13 +3739,13 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G39" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I39" s="29" t="s">
         <v>20</v>
@@ -3506,10 +3762,18 @@
       <c r="M39" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
+      <c r="N39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R39" s="35"/>
       <c r="S39" s="35"/>
       <c r="T39" s="35"/>
@@ -3541,7 +3805,7 @@
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G40" s="37" t="s">
         <v>20</v>
@@ -3556,7 +3820,7 @@
         <v>20</v>
       </c>
       <c r="K40" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L40" s="29" t="s">
         <v>20</v>
@@ -3564,10 +3828,18 @@
       <c r="M40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="35"/>
+      <c r="N40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R40" s="35"/>
       <c r="S40" s="35"/>
       <c r="T40" s="35"/>
@@ -3599,7 +3871,7 @@
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G41" s="37" t="s">
         <v>20</v>
@@ -3622,10 +3894,18 @@
       <c r="M41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
+      <c r="N41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R41" s="35"/>
       <c r="S41" s="35"/>
       <c r="T41" s="35"/>
@@ -3653,14 +3933,14 @@
       </c>
       <c r="E42" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G42" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H42" s="36" t="s">
         <v>20</v>
@@ -3672,18 +3952,26 @@
         <v>20</v>
       </c>
       <c r="K42" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L42" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
+      <c r="N42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="R42" s="35"/>
       <c r="S42" s="35"/>
       <c r="T42" s="35"/>
@@ -3711,17 +3999,17 @@
       </c>
       <c r="E43" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G43" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I43" s="29" t="s">
         <v>20</v>
@@ -3738,10 +4026,18 @@
       <c r="M43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N43" s="35"/>
-      <c r="O43" s="35"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="35"/>
+      <c r="N43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q43" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="R43" s="35"/>
       <c r="S43" s="35"/>
       <c r="T43" s="35"/>
@@ -3773,13 +4069,13 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G44" s="37" t="s">
         <v>20</v>
       </c>
       <c r="H44" s="36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I44" s="29" t="s">
         <v>20</v>
@@ -3796,10 +4092,18 @@
       <c r="M44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N44" s="35"/>
-      <c r="O44" s="35"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="35"/>
+      <c r="N44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R44" s="35"/>
       <c r="S44" s="35"/>
       <c r="T44" s="35"/>
@@ -3827,14 +4131,14 @@
       </c>
       <c r="E45" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G45" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H45" s="36" t="s">
         <v>20</v>
@@ -3852,12 +4156,20 @@
         <v>20</v>
       </c>
       <c r="M45" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="N45" s="35"/>
-      <c r="O45" s="35"/>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="35"/>
+        <v>21</v>
+      </c>
+      <c r="N45" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q45" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="R45" s="35"/>
       <c r="S45" s="35"/>
       <c r="T45" s="35"/>
@@ -3889,13 +4201,13 @@
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G46" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H46" s="36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I46" s="29" t="s">
         <v>20</v>
@@ -3904,7 +4216,7 @@
         <v>20</v>
       </c>
       <c r="K46" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L46" s="29" t="s">
         <v>20</v>
@@ -3912,10 +4224,18 @@
       <c r="M46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N46" s="35"/>
-      <c r="O46" s="35"/>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="35"/>
+      <c r="N46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q46" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R46" s="35"/>
       <c r="S46" s="35"/>
       <c r="T46" s="35"/>
@@ -3943,17 +4263,17 @@
       </c>
       <c r="E47" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G47" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H47" s="36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I47" s="29" t="s">
         <v>20</v>
@@ -3962,7 +4282,7 @@
         <v>20</v>
       </c>
       <c r="K47" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L47" s="29" t="s">
         <v>20</v>
@@ -3970,10 +4290,18 @@
       <c r="M47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N47" s="35"/>
-      <c r="O47" s="35"/>
-      <c r="P47" s="35"/>
-      <c r="Q47" s="35"/>
+      <c r="N47" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q47" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R47" s="35"/>
       <c r="S47" s="35"/>
       <c r="T47" s="35"/>
@@ -4001,11 +4329,11 @@
       </c>
       <c r="E48" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G48" s="37" t="s">
         <v>20</v>
@@ -4028,10 +4356,18 @@
       <c r="M48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N48" s="35"/>
-      <c r="O48" s="35"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="35"/>
+      <c r="N48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P48" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q48" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="R48" s="35"/>
       <c r="S48" s="35"/>
       <c r="T48" s="35"/>
@@ -4059,11 +4395,11 @@
       </c>
       <c r="E49" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G49" s="37" t="s">
         <v>20</v>
@@ -4081,15 +4417,23 @@
         <v>20</v>
       </c>
       <c r="L49" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M49" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N49" s="35"/>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
+      <c r="N49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P49" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q49" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R49" s="35"/>
       <c r="S49" s="35"/>
       <c r="T49" s="35"/>
@@ -4117,14 +4461,14 @@
       </c>
       <c r="E50" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G50" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H50" s="36" t="s">
         <v>20</v>
@@ -4144,10 +4488,18 @@
       <c r="M50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N50" s="35"/>
-      <c r="O50" s="35"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="35"/>
+      <c r="N50" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P50" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q50" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R50" s="35"/>
       <c r="S50" s="35"/>
       <c r="T50" s="35"/>
@@ -4175,14 +4527,14 @@
       </c>
       <c r="E51" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G51" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H51" s="36" t="s">
         <v>20</v>
@@ -4202,10 +4554,18 @@
       <c r="M51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
+      <c r="N51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q51" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="R51" s="35"/>
       <c r="S51" s="35"/>
       <c r="T51" s="35"/>
@@ -4233,17 +4593,17 @@
       </c>
       <c r="E52" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G52" s="37" t="s">
         <v>20</v>
       </c>
       <c r="H52" s="36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I52" s="29" t="s">
         <v>20</v>
@@ -4260,10 +4620,18 @@
       <c r="M52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N52" s="35"/>
-      <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="35"/>
+      <c r="N52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q52" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="R52" s="35"/>
       <c r="S52" s="35"/>
       <c r="T52" s="35"/>
@@ -4291,14 +4659,14 @@
       </c>
       <c r="E53" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G53" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H53" s="36" t="s">
         <v>20</v>
@@ -4318,10 +4686,18 @@
       <c r="M53" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N53" s="35"/>
-      <c r="O53" s="35"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
+      <c r="N53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q53" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="R53" s="35"/>
       <c r="S53" s="35"/>
       <c r="T53" s="35"/>
@@ -4349,17 +4725,17 @@
       </c>
       <c r="E54" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G54" s="37" t="s">
         <v>20</v>
       </c>
       <c r="H54" s="36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I54" s="29" t="s">
         <v>20</v>
@@ -4376,10 +4752,18 @@
       <c r="M54" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N54" s="35"/>
-      <c r="O54" s="35"/>
-      <c r="P54" s="35"/>
-      <c r="Q54" s="35"/>
+      <c r="N54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P54" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q54" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R54" s="35"/>
       <c r="S54" s="35"/>
       <c r="T54" s="35"/>
@@ -4407,17 +4791,17 @@
       </c>
       <c r="E55" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G55" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H55" s="36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I55" s="29" t="s">
         <v>20</v>
@@ -4426,7 +4810,7 @@
         <v>20</v>
       </c>
       <c r="K55" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L55" s="29" t="s">
         <v>20</v>
@@ -4434,10 +4818,18 @@
       <c r="M55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="35"/>
+      <c r="N55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P55" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q55" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R55" s="35"/>
       <c r="S55" s="35"/>
       <c r="T55" s="35"/>
@@ -4469,13 +4861,13 @@
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G56" s="37" t="s">
         <v>20</v>
       </c>
       <c r="H56" s="36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I56" s="29" t="s">
         <v>20</v>
@@ -4487,15 +4879,23 @@
         <v>20</v>
       </c>
       <c r="L56" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N56" s="35"/>
-      <c r="O56" s="35"/>
-      <c r="P56" s="35"/>
-      <c r="Q56" s="35"/>
+      <c r="N56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q56" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R56" s="35"/>
       <c r="S56" s="35"/>
       <c r="T56" s="35"/>
@@ -4527,13 +4927,13 @@
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G57" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H57" s="36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I57" s="29" t="s">
         <v>20</v>
@@ -4542,7 +4942,7 @@
         <v>20</v>
       </c>
       <c r="K57" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L57" s="29" t="s">
         <v>20</v>
@@ -4550,10 +4950,18 @@
       <c r="M57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N57" s="35"/>
-      <c r="O57" s="35"/>
-      <c r="P57" s="35"/>
-      <c r="Q57" s="35"/>
+      <c r="N57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q57" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R57" s="35"/>
       <c r="S57" s="35"/>
       <c r="T57" s="35"/>
@@ -4585,7 +4993,7 @@
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G58" s="37" t="s">
         <v>20</v>
@@ -4608,10 +5016,18 @@
       <c r="M58" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N58" s="35"/>
-      <c r="O58" s="35"/>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="35"/>
+      <c r="N58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q58" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R58" s="35"/>
       <c r="S58" s="35"/>
       <c r="T58" s="35"/>
@@ -4639,14 +5055,14 @@
       </c>
       <c r="E59" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G59" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H59" s="36" t="s">
         <v>20</v>
@@ -4666,10 +5082,18 @@
       <c r="M59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
-      <c r="Q59" s="35"/>
+      <c r="N59" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q59" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R59" s="35"/>
       <c r="S59" s="35"/>
       <c r="T59" s="35"/>
@@ -4701,13 +5125,13 @@
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G60" s="37" t="s">
         <v>20</v>
       </c>
       <c r="H60" s="36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I60" s="29" t="s">
         <v>20</v>
@@ -4724,10 +5148,18 @@
       <c r="M60" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N60" s="35"/>
-      <c r="O60" s="35"/>
-      <c r="P60" s="35"/>
-      <c r="Q60" s="35"/>
+      <c r="N60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q60" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R60" s="35"/>
       <c r="S60" s="35"/>
       <c r="T60" s="35"/>
@@ -4759,7 +5191,7 @@
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G61" s="37" t="s">
         <v>20</v>
@@ -4782,10 +5214,18 @@
       <c r="M61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N61" s="35"/>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="35"/>
+      <c r="N61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q61" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R61" s="35"/>
       <c r="S61" s="35"/>
       <c r="T61" s="35"/>
@@ -4813,11 +5253,11 @@
       </c>
       <c r="E62" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G62" s="37" t="s">
         <v>20</v>
@@ -4840,10 +5280,18 @@
       <c r="M62" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N62" s="35"/>
-      <c r="O62" s="35"/>
-      <c r="P62" s="35"/>
-      <c r="Q62" s="35"/>
+      <c r="N62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P62" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q62" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R62" s="35"/>
       <c r="S62" s="35"/>
       <c r="T62" s="35"/>
@@ -4875,7 +5323,7 @@
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G63" s="37" t="s">
         <v>20</v>
@@ -4898,10 +5346,18 @@
       <c r="M63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N63" s="35"/>
-      <c r="O63" s="35"/>
-      <c r="P63" s="35"/>
-      <c r="Q63" s="35"/>
+      <c r="N63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q63" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R63" s="35"/>
       <c r="S63" s="35"/>
       <c r="T63" s="35"/>
@@ -4933,13 +5389,13 @@
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G64" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H64" s="36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I64" s="29" t="s">
         <v>20</v>
@@ -4948,18 +5404,26 @@
         <v>20</v>
       </c>
       <c r="K64" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L64" s="29" t="s">
         <v>20</v>
       </c>
       <c r="M64" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="N64" s="35"/>
-      <c r="O64" s="35"/>
-      <c r="P64" s="35"/>
-      <c r="Q64" s="35"/>
+        <v>21</v>
+      </c>
+      <c r="N64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q64" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R64" s="35"/>
       <c r="S64" s="35"/>
       <c r="T64" s="35"/>
@@ -4991,7 +5455,7 @@
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G65" s="37" t="s">
         <v>20</v>
@@ -5014,10 +5478,18 @@
       <c r="M65" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N65" s="35"/>
-      <c r="O65" s="35"/>
-      <c r="P65" s="35"/>
-      <c r="Q65" s="35"/>
+      <c r="N65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q65" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R65" s="35"/>
       <c r="S65" s="35"/>
       <c r="T65" s="35"/>
@@ -5049,10 +5521,10 @@
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G66" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H66" s="36" t="s">
         <v>20</v>
@@ -5064,7 +5536,7 @@
         <v>20</v>
       </c>
       <c r="K66" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L66" s="29" t="s">
         <v>20</v>
@@ -5072,10 +5544,18 @@
       <c r="M66" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N66" s="35"/>
-      <c r="O66" s="35"/>
-      <c r="P66" s="35"/>
-      <c r="Q66" s="35"/>
+      <c r="N66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q66" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R66" s="35"/>
       <c r="S66" s="35"/>
       <c r="T66" s="35"/>
@@ -5103,14 +5583,14 @@
       </c>
       <c r="E67" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G67" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H67" s="36" t="s">
         <v>20</v>
@@ -5122,7 +5602,7 @@
         <v>20</v>
       </c>
       <c r="K67" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L67" s="29" t="s">
         <v>20</v>
@@ -5130,10 +5610,18 @@
       <c r="M67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N67" s="35"/>
-      <c r="O67" s="35"/>
-      <c r="P67" s="35"/>
-      <c r="Q67" s="35"/>
+      <c r="N67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P67" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q67" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R67" s="35"/>
       <c r="S67" s="35"/>
       <c r="T67" s="35"/>
@@ -5161,17 +5649,17 @@
       </c>
       <c r="E68" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G68" s="37" t="s">
         <v>20</v>
       </c>
       <c r="H68" s="36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I68" s="29" t="s">
         <v>20</v>
@@ -5188,10 +5676,18 @@
       <c r="M68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N68" s="35"/>
-      <c r="O68" s="35"/>
-      <c r="P68" s="35"/>
-      <c r="Q68" s="35"/>
+      <c r="N68" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q68" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R68" s="35"/>
       <c r="S68" s="35"/>
       <c r="T68" s="35"/>
@@ -5219,14 +5715,14 @@
       </c>
       <c r="E69" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G69" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H69" s="36" t="s">
         <v>20</v>
@@ -5246,10 +5742,18 @@
       <c r="M69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N69" s="35"/>
-      <c r="O69" s="35"/>
-      <c r="P69" s="35"/>
-      <c r="Q69" s="35"/>
+      <c r="N69" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q69" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R69" s="35"/>
       <c r="S69" s="35"/>
       <c r="T69" s="35"/>
@@ -5281,10 +5785,10 @@
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G70" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H70" s="36" t="s">
         <v>20</v>
@@ -5304,10 +5808,18 @@
       <c r="M70" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N70" s="35"/>
-      <c r="O70" s="35"/>
-      <c r="P70" s="35"/>
-      <c r="Q70" s="35"/>
+      <c r="N70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q70" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R70" s="35"/>
       <c r="S70" s="35"/>
       <c r="T70" s="35"/>
@@ -5335,11 +5847,11 @@
       </c>
       <c r="E71" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G71" s="37" t="s">
         <v>20</v>
@@ -5362,10 +5874,18 @@
       <c r="M71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N71" s="35"/>
-      <c r="O71" s="35"/>
-      <c r="P71" s="35"/>
-      <c r="Q71" s="35"/>
+      <c r="N71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P71" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q71" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R71" s="35"/>
       <c r="S71" s="35"/>
       <c r="T71" s="35"/>
@@ -5397,22 +5917,22 @@
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G72" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H72" s="36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I72" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J72" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K72" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L72" s="29" t="s">
         <v>20</v>
@@ -5420,10 +5940,18 @@
       <c r="M72" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N72" s="35"/>
-      <c r="O72" s="35"/>
-      <c r="P72" s="35"/>
-      <c r="Q72" s="35"/>
+      <c r="N72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q72" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R72" s="35"/>
       <c r="S72" s="35"/>
       <c r="T72" s="35"/>
@@ -5451,17 +5979,17 @@
       </c>
       <c r="E73" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G73" s="37" t="s">
         <v>20</v>
       </c>
       <c r="H73" s="36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I73" s="29" t="s">
         <v>20</v>
@@ -5478,10 +6006,18 @@
       <c r="M73" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N73" s="35"/>
-      <c r="O73" s="35"/>
-      <c r="P73" s="35"/>
-      <c r="Q73" s="35"/>
+      <c r="N73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P73" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q73" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R73" s="35"/>
       <c r="S73" s="35"/>
       <c r="T73" s="35"/>
@@ -5513,10 +6049,10 @@
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G74" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H74" s="36" t="s">
         <v>20</v>
@@ -5536,10 +6072,18 @@
       <c r="M74" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N74" s="35"/>
-      <c r="O74" s="35"/>
-      <c r="P74" s="35"/>
-      <c r="Q74" s="35"/>
+      <c r="N74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q74" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R74" s="35"/>
       <c r="S74" s="35"/>
       <c r="T74" s="35"/>
@@ -5567,11 +6111,11 @@
       </c>
       <c r="E75" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G75" s="37" t="s">
         <v>20</v>
@@ -5594,10 +6138,18 @@
       <c r="M75" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N75" s="35"/>
-      <c r="O75" s="35"/>
-      <c r="P75" s="35"/>
-      <c r="Q75" s="35"/>
+      <c r="N75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O75" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q75" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R75" s="35"/>
       <c r="S75" s="35"/>
       <c r="T75" s="35"/>
@@ -5625,17 +6177,17 @@
       </c>
       <c r="E76" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F76" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G76" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H76" s="36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I76" s="29" t="s">
         <v>20</v>
@@ -5647,15 +6199,23 @@
         <v>20</v>
       </c>
       <c r="L76" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M76" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N76" s="35"/>
-      <c r="O76" s="35"/>
-      <c r="P76" s="35"/>
-      <c r="Q76" s="35"/>
+      <c r="N76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O76" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q76" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="R76" s="35"/>
       <c r="S76" s="35"/>
       <c r="T76" s="35"/>
@@ -5683,11 +6243,11 @@
       </c>
       <c r="E77" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F77" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G77" s="37" t="s">
         <v>20</v>
@@ -5710,10 +6270,18 @@
       <c r="M77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N77" s="35"/>
-      <c r="O77" s="35"/>
-      <c r="P77" s="35"/>
-      <c r="Q77" s="35"/>
+      <c r="N77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O77" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P77" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q77" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R77" s="35"/>
       <c r="S77" s="35"/>
       <c r="T77" s="35"/>
@@ -5745,7 +6313,7 @@
       </c>
       <c r="F78" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G78" s="37" t="s">
         <v>20</v>
@@ -5768,10 +6336,18 @@
       <c r="M78" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N78" s="35"/>
-      <c r="O78" s="35"/>
-      <c r="P78" s="35"/>
-      <c r="Q78" s="35"/>
+      <c r="N78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q78" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R78" s="35"/>
       <c r="S78" s="35"/>
       <c r="T78" s="35"/>
@@ -5799,17 +6375,17 @@
       </c>
       <c r="E79" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F79" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G79" s="37" t="s">
         <v>20</v>
       </c>
       <c r="H79" s="36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I79" s="29" t="s">
         <v>20</v>
@@ -5826,10 +6402,18 @@
       <c r="M79" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N79" s="35"/>
-      <c r="O79" s="35"/>
-      <c r="P79" s="35"/>
-      <c r="Q79" s="35"/>
+      <c r="N79" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O79" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P79" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q79" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="R79" s="35"/>
       <c r="S79" s="35"/>
       <c r="T79" s="35"/>
@@ -5857,11 +6441,11 @@
       </c>
       <c r="E80" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G80" s="37" t="s">
         <v>20</v>
@@ -5884,10 +6468,18 @@
       <c r="M80" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N80" s="35"/>
-      <c r="O80" s="35"/>
-      <c r="P80" s="35"/>
-      <c r="Q80" s="35"/>
+      <c r="N80" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O80" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P80" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q80" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="R80" s="35"/>
       <c r="S80" s="35"/>
       <c r="T80" s="35"/>
@@ -5915,11 +6507,11 @@
       </c>
       <c r="E81" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G81" s="37" t="s">
         <v>20</v>
@@ -5934,7 +6526,7 @@
         <v>20</v>
       </c>
       <c r="K81" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L81" s="29" t="s">
         <v>20</v>
@@ -5942,10 +6534,18 @@
       <c r="M81" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N81" s="35"/>
-      <c r="O81" s="35"/>
-      <c r="P81" s="35"/>
-      <c r="Q81" s="35"/>
+      <c r="N81" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O81" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P81" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q81" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R81" s="35"/>
       <c r="S81" s="35"/>
       <c r="T81" s="35"/>
@@ -5973,11 +6573,11 @@
       </c>
       <c r="E82" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G82" s="37" t="s">
         <v>20</v>
@@ -6000,10 +6600,18 @@
       <c r="M82" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N82" s="35"/>
-      <c r="O82" s="35"/>
-      <c r="P82" s="35"/>
-      <c r="Q82" s="35"/>
+      <c r="N82" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O82" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P82" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q82" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R82" s="35"/>
       <c r="S82" s="35"/>
       <c r="T82" s="35"/>

--- a/attendance-files/SM-II/SM-II (F) Attendance Sheet.xlsx
+++ b/attendance-files/SM-II/SM-II (F) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="172">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1228,11 +1228,10 @@
     <col customWidth="1" min="1" max="1" width="7.13"/>
     <col customWidth="1" min="2" max="2" width="19.63"/>
     <col customWidth="1" min="3" max="3" width="30.25"/>
-    <col customWidth="1" hidden="1" min="4" max="4" width="7.25"/>
-    <col customWidth="1" hidden="1" min="5" max="5" width="12.75"/>
-    <col customWidth="1" hidden="1" min="6" max="6" width="11.0"/>
-    <col customWidth="1" hidden="1" min="7" max="17" width="10.75"/>
-    <col customWidth="1" min="18" max="26" width="10.75"/>
+    <col customWidth="1" min="4" max="4" width="7.25"/>
+    <col customWidth="1" min="5" max="5" width="12.75"/>
+    <col customWidth="1" min="6" max="6" width="11.0"/>
+    <col customWidth="1" min="7" max="26" width="10.75"/>
     <col customWidth="1" min="27" max="27" width="9.0"/>
   </cols>
   <sheetData>
@@ -1623,7 +1622,7 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
@@ -1662,7 +1661,9 @@
       <c r="Q7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="30"/>
+      <c r="R7" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S7" s="30"/>
       <c r="T7" s="30"/>
       <c r="U7" s="30"/>
@@ -1693,7 +1694,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>20</v>
@@ -1728,7 +1729,9 @@
       <c r="Q8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="35"/>
+      <c r="R8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S8" s="35"/>
       <c r="T8" s="35"/>
       <c r="U8" s="35"/>
@@ -1759,7 +1762,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>21</v>
@@ -1794,7 +1797,9 @@
       <c r="Q9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R9" s="35"/>
+      <c r="R9" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S9" s="35"/>
       <c r="T9" s="35"/>
       <c r="U9" s="35"/>
@@ -1825,7 +1830,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>20</v>
@@ -1860,7 +1865,9 @@
       <c r="Q10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="35"/>
+      <c r="R10" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S10" s="35"/>
       <c r="T10" s="35"/>
       <c r="U10" s="35"/>
@@ -1891,7 +1898,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>21</v>
@@ -1926,7 +1933,9 @@
       <c r="Q11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R11" s="35"/>
+      <c r="R11" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S11" s="35"/>
       <c r="T11" s="35"/>
       <c r="U11" s="35"/>
@@ -1957,7 +1966,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>20</v>
@@ -1992,7 +2001,9 @@
       <c r="Q12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="35"/>
+      <c r="R12" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S12" s="35"/>
       <c r="T12" s="35"/>
       <c r="U12" s="35"/>
@@ -2023,7 +2034,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>20</v>
@@ -2058,7 +2069,9 @@
       <c r="Q13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R13" s="35"/>
+      <c r="R13" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S13" s="35"/>
       <c r="T13" s="35"/>
       <c r="U13" s="35"/>
@@ -2089,7 +2102,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>20</v>
@@ -2124,7 +2137,9 @@
       <c r="Q14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R14" s="35"/>
+      <c r="R14" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S14" s="35"/>
       <c r="T14" s="35"/>
       <c r="U14" s="35"/>
@@ -2155,7 +2170,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>20</v>
@@ -2190,7 +2205,9 @@
       <c r="Q15" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R15" s="35"/>
+      <c r="R15" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S15" s="35"/>
       <c r="T15" s="35"/>
       <c r="U15" s="35"/>
@@ -2221,7 +2238,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>20</v>
@@ -2256,7 +2273,9 @@
       <c r="Q16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R16" s="35"/>
+      <c r="R16" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S16" s="35"/>
       <c r="T16" s="35"/>
       <c r="U16" s="35"/>
@@ -2287,7 +2306,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>21</v>
@@ -2322,7 +2341,9 @@
       <c r="Q17" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R17" s="35"/>
+      <c r="R17" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S17" s="35"/>
       <c r="T17" s="35"/>
       <c r="U17" s="35"/>
@@ -2349,7 +2370,7 @@
       </c>
       <c r="E18" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
@@ -2388,7 +2409,9 @@
       <c r="Q18" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R18" s="35"/>
+      <c r="R18" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S18" s="35"/>
       <c r="T18" s="35"/>
       <c r="U18" s="35"/>
@@ -2419,7 +2442,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G19" s="37" t="s">
         <v>21</v>
@@ -2454,7 +2477,9 @@
       <c r="Q19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R19" s="35"/>
+      <c r="R19" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S19" s="35"/>
       <c r="T19" s="35"/>
       <c r="U19" s="35"/>
@@ -2485,7 +2510,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G20" s="37" t="s">
         <v>21</v>
@@ -2520,7 +2545,9 @@
       <c r="Q20" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R20" s="35"/>
+      <c r="R20" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S20" s="35"/>
       <c r="T20" s="35"/>
       <c r="U20" s="35"/>
@@ -2551,7 +2578,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G21" s="37" t="s">
         <v>21</v>
@@ -2586,7 +2613,9 @@
       <c r="Q21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R21" s="35"/>
+      <c r="R21" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S21" s="35"/>
       <c r="T21" s="35"/>
       <c r="U21" s="35"/>
@@ -2617,7 +2646,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>20</v>
@@ -2652,7 +2681,9 @@
       <c r="Q22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R22" s="35"/>
+      <c r="R22" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S22" s="35"/>
       <c r="T22" s="35"/>
       <c r="U22" s="35"/>
@@ -2683,7 +2714,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G23" s="37" t="s">
         <v>20</v>
@@ -2718,7 +2749,9 @@
       <c r="Q23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R23" s="35"/>
+      <c r="R23" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S23" s="35"/>
       <c r="T23" s="35"/>
       <c r="U23" s="35"/>
@@ -2749,7 +2782,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G24" s="37" t="s">
         <v>20</v>
@@ -2784,7 +2817,9 @@
       <c r="Q24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R24" s="35"/>
+      <c r="R24" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S24" s="35"/>
       <c r="T24" s="35"/>
       <c r="U24" s="35"/>
@@ -2811,7 +2846,7 @@
       </c>
       <c r="E25" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
@@ -2850,7 +2885,9 @@
       <c r="Q25" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R25" s="35"/>
+      <c r="R25" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S25" s="35"/>
       <c r="T25" s="35"/>
       <c r="U25" s="35"/>
@@ -2881,7 +2918,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G26" s="37" t="s">
         <v>20</v>
@@ -2916,7 +2953,9 @@
       <c r="Q26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R26" s="35"/>
+      <c r="R26" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S26" s="35"/>
       <c r="T26" s="35"/>
       <c r="U26" s="35"/>
@@ -2947,7 +2986,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G27" s="37" t="s">
         <v>21</v>
@@ -2982,7 +3021,9 @@
       <c r="Q27" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R27" s="35"/>
+      <c r="R27" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S27" s="35"/>
       <c r="T27" s="35"/>
       <c r="U27" s="35"/>
@@ -3013,7 +3054,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G28" s="37" t="s">
         <v>21</v>
@@ -3048,7 +3089,9 @@
       <c r="Q28" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R28" s="35"/>
+      <c r="R28" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S28" s="35"/>
       <c r="T28" s="35"/>
       <c r="U28" s="35"/>
@@ -3079,7 +3122,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G29" s="37" t="s">
         <v>20</v>
@@ -3114,7 +3157,9 @@
       <c r="Q29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R29" s="35"/>
+      <c r="R29" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S29" s="35"/>
       <c r="T29" s="35"/>
       <c r="U29" s="35"/>
@@ -3141,7 +3186,7 @@
       </c>
       <c r="E30" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
@@ -3180,7 +3225,9 @@
       <c r="Q30" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R30" s="35"/>
+      <c r="R30" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S30" s="35"/>
       <c r="T30" s="35"/>
       <c r="U30" s="35"/>
@@ -3207,7 +3254,7 @@
       </c>
       <c r="E31" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
@@ -3246,7 +3293,9 @@
       <c r="Q31" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R31" s="35"/>
+      <c r="R31" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S31" s="35"/>
       <c r="T31" s="35"/>
       <c r="U31" s="35"/>
@@ -3277,7 +3326,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G32" s="37" t="s">
         <v>21</v>
@@ -3312,7 +3361,9 @@
       <c r="Q32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R32" s="35"/>
+      <c r="R32" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S32" s="35"/>
       <c r="T32" s="35"/>
       <c r="U32" s="35"/>
@@ -3339,7 +3390,7 @@
       </c>
       <c r="E33" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
@@ -3378,7 +3429,9 @@
       <c r="Q33" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R33" s="35"/>
+      <c r="R33" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S33" s="35"/>
       <c r="T33" s="35"/>
       <c r="U33" s="35"/>
@@ -3409,7 +3462,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G34" s="37" t="s">
         <v>20</v>
@@ -3444,7 +3497,9 @@
       <c r="Q34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R34" s="35"/>
+      <c r="R34" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S34" s="35"/>
       <c r="T34" s="35"/>
       <c r="U34" s="35"/>
@@ -3475,7 +3530,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G35" s="37" t="s">
         <v>20</v>
@@ -3510,7 +3565,9 @@
       <c r="Q35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R35" s="35"/>
+      <c r="R35" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S35" s="35"/>
       <c r="T35" s="35"/>
       <c r="U35" s="35"/>
@@ -3537,7 +3594,7 @@
       </c>
       <c r="E36" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
@@ -3576,7 +3633,9 @@
       <c r="Q36" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R36" s="35"/>
+      <c r="R36" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S36" s="35"/>
       <c r="T36" s="35"/>
       <c r="U36" s="35"/>
@@ -3603,7 +3662,7 @@
       </c>
       <c r="E37" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
@@ -3642,7 +3701,9 @@
       <c r="Q37" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R37" s="35"/>
+      <c r="R37" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S37" s="35"/>
       <c r="T37" s="35"/>
       <c r="U37" s="35"/>
@@ -3669,7 +3730,7 @@
       </c>
       <c r="E38" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
@@ -3708,7 +3769,9 @@
       <c r="Q38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R38" s="35"/>
+      <c r="R38" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S38" s="35"/>
       <c r="T38" s="35"/>
       <c r="U38" s="35"/>
@@ -3739,7 +3802,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G39" s="37" t="s">
         <v>21</v>
@@ -3774,7 +3837,9 @@
       <c r="Q39" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R39" s="35"/>
+      <c r="R39" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S39" s="35"/>
       <c r="T39" s="35"/>
       <c r="U39" s="35"/>
@@ -3805,7 +3870,7 @@
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G40" s="37" t="s">
         <v>20</v>
@@ -3840,7 +3905,9 @@
       <c r="Q40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R40" s="35"/>
+      <c r="R40" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S40" s="35"/>
       <c r="T40" s="35"/>
       <c r="U40" s="35"/>
@@ -3871,7 +3938,7 @@
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G41" s="37" t="s">
         <v>20</v>
@@ -3906,7 +3973,9 @@
       <c r="Q41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R41" s="35"/>
+      <c r="R41" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S41" s="35"/>
       <c r="T41" s="35"/>
       <c r="U41" s="35"/>
@@ -3937,7 +4006,7 @@
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G42" s="37" t="s">
         <v>21</v>
@@ -3972,7 +4041,9 @@
       <c r="Q42" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R42" s="35"/>
+      <c r="R42" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S42" s="35"/>
       <c r="T42" s="35"/>
       <c r="U42" s="35"/>
@@ -3999,7 +4070,7 @@
       </c>
       <c r="E43" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
@@ -4038,7 +4109,9 @@
       <c r="Q43" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R43" s="35"/>
+      <c r="R43" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S43" s="35"/>
       <c r="T43" s="35"/>
       <c r="U43" s="35"/>
@@ -4069,7 +4142,7 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G44" s="37" t="s">
         <v>20</v>
@@ -4104,7 +4177,9 @@
       <c r="Q44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R44" s="35"/>
+      <c r="R44" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S44" s="35"/>
       <c r="T44" s="35"/>
       <c r="U44" s="35"/>
@@ -4135,7 +4210,7 @@
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G45" s="37" t="s">
         <v>21</v>
@@ -4170,7 +4245,9 @@
       <c r="Q45" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R45" s="35"/>
+      <c r="R45" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S45" s="35"/>
       <c r="T45" s="35"/>
       <c r="U45" s="35"/>
@@ -4201,7 +4278,7 @@
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G46" s="37" t="s">
         <v>21</v>
@@ -4236,7 +4313,9 @@
       <c r="Q46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R46" s="35"/>
+      <c r="R46" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S46" s="35"/>
       <c r="T46" s="35"/>
       <c r="U46" s="35"/>
@@ -4267,7 +4346,7 @@
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G47" s="37" t="s">
         <v>21</v>
@@ -4302,7 +4381,9 @@
       <c r="Q47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R47" s="35"/>
+      <c r="R47" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S47" s="35"/>
       <c r="T47" s="35"/>
       <c r="U47" s="35"/>
@@ -4333,7 +4414,7 @@
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G48" s="37" t="s">
         <v>20</v>
@@ -4368,7 +4449,9 @@
       <c r="Q48" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R48" s="35"/>
+      <c r="R48" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S48" s="35"/>
       <c r="T48" s="35"/>
       <c r="U48" s="35"/>
@@ -4399,7 +4482,7 @@
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G49" s="37" t="s">
         <v>20</v>
@@ -4434,7 +4517,9 @@
       <c r="Q49" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R49" s="35"/>
+      <c r="R49" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S49" s="35"/>
       <c r="T49" s="35"/>
       <c r="U49" s="35"/>
@@ -4465,7 +4550,7 @@
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G50" s="37" t="s">
         <v>21</v>
@@ -4500,7 +4585,9 @@
       <c r="Q50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R50" s="35"/>
+      <c r="R50" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S50" s="35"/>
       <c r="T50" s="35"/>
       <c r="U50" s="35"/>
@@ -4531,7 +4618,7 @@
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G51" s="37" t="s">
         <v>21</v>
@@ -4566,7 +4653,9 @@
       <c r="Q51" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R51" s="35"/>
+      <c r="R51" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S51" s="35"/>
       <c r="T51" s="35"/>
       <c r="U51" s="35"/>
@@ -4593,7 +4682,7 @@
       </c>
       <c r="E52" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
@@ -4632,7 +4721,9 @@
       <c r="Q52" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R52" s="35"/>
+      <c r="R52" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S52" s="35"/>
       <c r="T52" s="35"/>
       <c r="U52" s="35"/>
@@ -4659,7 +4750,7 @@
       </c>
       <c r="E53" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
@@ -4698,7 +4789,9 @@
       <c r="Q53" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R53" s="35"/>
+      <c r="R53" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S53" s="35"/>
       <c r="T53" s="35"/>
       <c r="U53" s="35"/>
@@ -4729,7 +4822,7 @@
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G54" s="37" t="s">
         <v>20</v>
@@ -4764,7 +4857,9 @@
       <c r="Q54" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R54" s="35"/>
+      <c r="R54" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S54" s="35"/>
       <c r="T54" s="35"/>
       <c r="U54" s="35"/>
@@ -4795,7 +4890,7 @@
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G55" s="37" t="s">
         <v>21</v>
@@ -4830,7 +4925,9 @@
       <c r="Q55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R55" s="35"/>
+      <c r="R55" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S55" s="35"/>
       <c r="T55" s="35"/>
       <c r="U55" s="35"/>
@@ -4861,7 +4958,7 @@
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G56" s="37" t="s">
         <v>20</v>
@@ -4896,7 +4993,9 @@
       <c r="Q56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R56" s="35"/>
+      <c r="R56" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S56" s="35"/>
       <c r="T56" s="35"/>
       <c r="U56" s="35"/>
@@ -4927,7 +5026,7 @@
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G57" s="37" t="s">
         <v>21</v>
@@ -4962,7 +5061,9 @@
       <c r="Q57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R57" s="35"/>
+      <c r="R57" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S57" s="35"/>
       <c r="T57" s="35"/>
       <c r="U57" s="35"/>
@@ -4993,7 +5094,7 @@
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G58" s="37" t="s">
         <v>20</v>
@@ -5028,7 +5129,9 @@
       <c r="Q58" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R58" s="35"/>
+      <c r="R58" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S58" s="35"/>
       <c r="T58" s="35"/>
       <c r="U58" s="35"/>
@@ -5059,7 +5162,7 @@
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G59" s="37" t="s">
         <v>21</v>
@@ -5094,7 +5197,9 @@
       <c r="Q59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R59" s="35"/>
+      <c r="R59" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S59" s="35"/>
       <c r="T59" s="35"/>
       <c r="U59" s="35"/>
@@ -5121,7 +5226,7 @@
       </c>
       <c r="E60" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
@@ -5160,7 +5265,9 @@
       <c r="Q60" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R60" s="35"/>
+      <c r="R60" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S60" s="35"/>
       <c r="T60" s="35"/>
       <c r="U60" s="35"/>
@@ -5191,7 +5298,7 @@
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G61" s="37" t="s">
         <v>20</v>
@@ -5226,7 +5333,9 @@
       <c r="Q61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R61" s="35"/>
+      <c r="R61" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S61" s="35"/>
       <c r="T61" s="35"/>
       <c r="U61" s="35"/>
@@ -5257,7 +5366,7 @@
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G62" s="37" t="s">
         <v>20</v>
@@ -5292,7 +5401,9 @@
       <c r="Q62" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R62" s="35"/>
+      <c r="R62" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S62" s="35"/>
       <c r="T62" s="35"/>
       <c r="U62" s="35"/>
@@ -5323,7 +5434,7 @@
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G63" s="37" t="s">
         <v>20</v>
@@ -5358,7 +5469,9 @@
       <c r="Q63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R63" s="35"/>
+      <c r="R63" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S63" s="35"/>
       <c r="T63" s="35"/>
       <c r="U63" s="35"/>
@@ -5389,7 +5502,7 @@
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G64" s="37" t="s">
         <v>21</v>
@@ -5424,7 +5537,9 @@
       <c r="Q64" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R64" s="35"/>
+      <c r="R64" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S64" s="35"/>
       <c r="T64" s="35"/>
       <c r="U64" s="35"/>
@@ -5455,7 +5570,7 @@
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G65" s="37" t="s">
         <v>20</v>
@@ -5490,7 +5605,9 @@
       <c r="Q65" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R65" s="35"/>
+      <c r="R65" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S65" s="35"/>
       <c r="T65" s="35"/>
       <c r="U65" s="35"/>
@@ -5521,7 +5638,7 @@
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G66" s="37" t="s">
         <v>21</v>
@@ -5556,7 +5673,9 @@
       <c r="Q66" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R66" s="35"/>
+      <c r="R66" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S66" s="35"/>
       <c r="T66" s="35"/>
       <c r="U66" s="35"/>
@@ -5587,7 +5706,7 @@
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G67" s="37" t="s">
         <v>21</v>
@@ -5622,7 +5741,9 @@
       <c r="Q67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R67" s="35"/>
+      <c r="R67" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S67" s="35"/>
       <c r="T67" s="35"/>
       <c r="U67" s="35"/>
@@ -5653,7 +5774,7 @@
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G68" s="37" t="s">
         <v>20</v>
@@ -5688,7 +5809,9 @@
       <c r="Q68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R68" s="35"/>
+      <c r="R68" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S68" s="35"/>
       <c r="T68" s="35"/>
       <c r="U68" s="35"/>
@@ -5715,7 +5838,7 @@
       </c>
       <c r="E69" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
@@ -5754,7 +5877,9 @@
       <c r="Q69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R69" s="35"/>
+      <c r="R69" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S69" s="35"/>
       <c r="T69" s="35"/>
       <c r="U69" s="35"/>
@@ -5781,7 +5906,7 @@
       </c>
       <c r="E70" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
@@ -5820,7 +5945,9 @@
       <c r="Q70" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R70" s="35"/>
+      <c r="R70" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S70" s="35"/>
       <c r="T70" s="35"/>
       <c r="U70" s="35"/>
@@ -5851,7 +5978,7 @@
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G71" s="37" t="s">
         <v>20</v>
@@ -5886,7 +6013,9 @@
       <c r="Q71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R71" s="35"/>
+      <c r="R71" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S71" s="35"/>
       <c r="T71" s="35"/>
       <c r="U71" s="35"/>
@@ -5917,7 +6046,7 @@
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G72" s="37" t="s">
         <v>21</v>
@@ -5952,7 +6081,9 @@
       <c r="Q72" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R72" s="35"/>
+      <c r="R72" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S72" s="35"/>
       <c r="T72" s="35"/>
       <c r="U72" s="35"/>
@@ -5983,7 +6114,7 @@
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G73" s="37" t="s">
         <v>20</v>
@@ -6018,7 +6149,9 @@
       <c r="Q73" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R73" s="35"/>
+      <c r="R73" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S73" s="35"/>
       <c r="T73" s="35"/>
       <c r="U73" s="35"/>
@@ -6049,7 +6182,7 @@
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G74" s="37" t="s">
         <v>21</v>
@@ -6084,7 +6217,9 @@
       <c r="Q74" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R74" s="35"/>
+      <c r="R74" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S74" s="35"/>
       <c r="T74" s="35"/>
       <c r="U74" s="35"/>
@@ -6115,7 +6250,7 @@
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G75" s="37" t="s">
         <v>20</v>
@@ -6150,7 +6285,9 @@
       <c r="Q75" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R75" s="35"/>
+      <c r="R75" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S75" s="35"/>
       <c r="T75" s="35"/>
       <c r="U75" s="35"/>
@@ -6177,7 +6314,7 @@
       </c>
       <c r="E76" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F76" s="34">
         <f t="shared" si="2"/>
@@ -6216,7 +6353,9 @@
       <c r="Q76" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R76" s="35"/>
+      <c r="R76" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S76" s="35"/>
       <c r="T76" s="35"/>
       <c r="U76" s="35"/>
@@ -6247,7 +6386,7 @@
       </c>
       <c r="F77" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G77" s="37" t="s">
         <v>20</v>
@@ -6282,7 +6421,9 @@
       <c r="Q77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R77" s="35"/>
+      <c r="R77" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S77" s="35"/>
       <c r="T77" s="35"/>
       <c r="U77" s="35"/>
@@ -6313,7 +6454,7 @@
       </c>
       <c r="F78" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G78" s="37" t="s">
         <v>20</v>
@@ -6348,7 +6489,9 @@
       <c r="Q78" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R78" s="35"/>
+      <c r="R78" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S78" s="35"/>
       <c r="T78" s="35"/>
       <c r="U78" s="35"/>
@@ -6379,7 +6522,7 @@
       </c>
       <c r="F79" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G79" s="37" t="s">
         <v>20</v>
@@ -6414,7 +6557,9 @@
       <c r="Q79" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R79" s="35"/>
+      <c r="R79" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S79" s="35"/>
       <c r="T79" s="35"/>
       <c r="U79" s="35"/>
@@ -6441,7 +6586,7 @@
       </c>
       <c r="E80" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F80" s="34">
         <f t="shared" si="2"/>
@@ -6480,7 +6625,9 @@
       <c r="Q80" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R80" s="35"/>
+      <c r="R80" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S80" s="35"/>
       <c r="T80" s="35"/>
       <c r="U80" s="35"/>
@@ -6511,7 +6658,7 @@
       </c>
       <c r="F81" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G81" s="37" t="s">
         <v>20</v>
@@ -6546,7 +6693,9 @@
       <c r="Q81" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R81" s="35"/>
+      <c r="R81" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S81" s="35"/>
       <c r="T81" s="35"/>
       <c r="U81" s="35"/>
@@ -6577,7 +6726,7 @@
       </c>
       <c r="F82" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G82" s="37" t="s">
         <v>20</v>
@@ -6612,7 +6761,9 @@
       <c r="Q82" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R82" s="35"/>
+      <c r="R82" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S82" s="35"/>
       <c r="T82" s="35"/>
       <c r="U82" s="35"/>

--- a/attendance-files/SM-II/SM-II (F) Attendance Sheet.xlsx
+++ b/attendance-files/SM-II/SM-II (F) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="172">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1622,11 +1622,11 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1664,8 +1664,12 @@
       <c r="R7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
+      <c r="S7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U7" s="30"/>
       <c r="V7" s="30"/>
       <c r="W7" s="30"/>
@@ -1694,7 +1698,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>20</v>
@@ -1732,8 +1736,12 @@
       <c r="R8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
+      <c r="S8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U8" s="35"/>
       <c r="V8" s="35"/>
       <c r="W8" s="35"/>
@@ -1762,7 +1770,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>21</v>
@@ -1800,8 +1808,12 @@
       <c r="R9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
+      <c r="S9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U9" s="35"/>
       <c r="V9" s="35"/>
       <c r="W9" s="35"/>
@@ -1830,7 +1842,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>20</v>
@@ -1868,8 +1880,12 @@
       <c r="R10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
+      <c r="S10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U10" s="35"/>
       <c r="V10" s="35"/>
       <c r="W10" s="35"/>
@@ -1894,11 +1910,11 @@
       </c>
       <c r="E11" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>21</v>
@@ -1936,8 +1952,12 @@
       <c r="R11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
+      <c r="S11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T11" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U11" s="35"/>
       <c r="V11" s="35"/>
       <c r="W11" s="35"/>
@@ -1962,7 +1982,7 @@
       </c>
       <c r="E12" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
@@ -2004,8 +2024,12 @@
       <c r="R12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
+      <c r="S12" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="T12" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U12" s="35"/>
       <c r="V12" s="35"/>
       <c r="W12" s="35"/>
@@ -2030,11 +2054,11 @@
       </c>
       <c r="E13" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>20</v>
@@ -2072,8 +2096,12 @@
       <c r="R13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
+      <c r="S13" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="T13" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U13" s="35"/>
       <c r="V13" s="35"/>
       <c r="W13" s="35"/>
@@ -2102,7 +2130,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>20</v>
@@ -2140,8 +2168,12 @@
       <c r="R14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
+      <c r="S14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T14" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U14" s="35"/>
       <c r="V14" s="35"/>
       <c r="W14" s="35"/>
@@ -2166,11 +2198,11 @@
       </c>
       <c r="E15" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>20</v>
@@ -2208,8 +2240,12 @@
       <c r="R15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
+      <c r="S15" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="T15" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U15" s="35"/>
       <c r="V15" s="35"/>
       <c r="W15" s="35"/>
@@ -2238,7 +2274,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>20</v>
@@ -2276,8 +2312,12 @@
       <c r="R16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
+      <c r="S16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T16" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U16" s="35"/>
       <c r="V16" s="35"/>
       <c r="W16" s="35"/>
@@ -2306,7 +2346,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>21</v>
@@ -2344,8 +2384,12 @@
       <c r="R17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
+      <c r="S17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T17" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U17" s="35"/>
       <c r="V17" s="35"/>
       <c r="W17" s="35"/>
@@ -2374,7 +2418,7 @@
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>21</v>
@@ -2412,8 +2456,12 @@
       <c r="R18" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
+      <c r="S18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T18" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U18" s="35"/>
       <c r="V18" s="35"/>
       <c r="W18" s="35"/>
@@ -2442,7 +2490,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G19" s="37" t="s">
         <v>21</v>
@@ -2480,8 +2528,12 @@
       <c r="R19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
+      <c r="S19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T19" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U19" s="35"/>
       <c r="V19" s="35"/>
       <c r="W19" s="35"/>
@@ -2510,7 +2562,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G20" s="37" t="s">
         <v>21</v>
@@ -2548,8 +2600,12 @@
       <c r="R20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
+      <c r="S20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T20" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U20" s="35"/>
       <c r="V20" s="35"/>
       <c r="W20" s="35"/>
@@ -2578,7 +2634,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G21" s="37" t="s">
         <v>21</v>
@@ -2616,8 +2672,12 @@
       <c r="R21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
+      <c r="S21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T21" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U21" s="35"/>
       <c r="V21" s="35"/>
       <c r="W21" s="35"/>
@@ -2642,11 +2702,11 @@
       </c>
       <c r="E22" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>20</v>
@@ -2684,8 +2744,12 @@
       <c r="R22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
+      <c r="S22" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="T22" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U22" s="35"/>
       <c r="V22" s="35"/>
       <c r="W22" s="35"/>
@@ -2714,7 +2778,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G23" s="37" t="s">
         <v>20</v>
@@ -2752,8 +2816,12 @@
       <c r="R23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
+      <c r="S23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T23" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U23" s="35"/>
       <c r="V23" s="35"/>
       <c r="W23" s="35"/>
@@ -2778,11 +2846,11 @@
       </c>
       <c r="E24" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24" s="37" t="s">
         <v>20</v>
@@ -2820,8 +2888,12 @@
       <c r="R24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
+      <c r="S24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T24" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U24" s="35"/>
       <c r="V24" s="35"/>
       <c r="W24" s="35"/>
@@ -2850,7 +2922,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G25" s="37" t="s">
         <v>20</v>
@@ -2888,8 +2960,12 @@
       <c r="R25" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
+      <c r="S25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T25" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U25" s="35"/>
       <c r="V25" s="35"/>
       <c r="W25" s="35"/>
@@ -2918,7 +2994,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G26" s="37" t="s">
         <v>20</v>
@@ -2956,8 +3032,12 @@
       <c r="R26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
+      <c r="S26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T26" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U26" s="35"/>
       <c r="V26" s="35"/>
       <c r="W26" s="35"/>
@@ -2986,7 +3066,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G27" s="37" t="s">
         <v>21</v>
@@ -3024,8 +3104,12 @@
       <c r="R27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
+      <c r="S27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T27" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U27" s="35"/>
       <c r="V27" s="35"/>
       <c r="W27" s="35"/>
@@ -3054,7 +3138,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G28" s="37" t="s">
         <v>21</v>
@@ -3092,8 +3176,12 @@
       <c r="R28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
+      <c r="S28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T28" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U28" s="35"/>
       <c r="V28" s="35"/>
       <c r="W28" s="35"/>
@@ -3122,7 +3210,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G29" s="37" t="s">
         <v>20</v>
@@ -3160,8 +3248,12 @@
       <c r="R29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
+      <c r="S29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T29" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U29" s="35"/>
       <c r="V29" s="35"/>
       <c r="W29" s="35"/>
@@ -3190,7 +3282,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G30" s="37" t="s">
         <v>21</v>
@@ -3228,8 +3320,12 @@
       <c r="R30" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
+      <c r="S30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T30" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U30" s="35"/>
       <c r="V30" s="35"/>
       <c r="W30" s="35"/>
@@ -3258,7 +3354,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G31" s="37" t="s">
         <v>21</v>
@@ -3296,8 +3392,12 @@
       <c r="R31" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
+      <c r="S31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T31" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U31" s="35"/>
       <c r="V31" s="35"/>
       <c r="W31" s="35"/>
@@ -3326,7 +3426,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G32" s="37" t="s">
         <v>21</v>
@@ -3364,8 +3464,12 @@
       <c r="R32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
+      <c r="S32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T32" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U32" s="35"/>
       <c r="V32" s="35"/>
       <c r="W32" s="35"/>
@@ -3390,11 +3494,11 @@
       </c>
       <c r="E33" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G33" s="37" t="s">
         <v>20</v>
@@ -3432,8 +3536,12 @@
       <c r="R33" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
+      <c r="S33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T33" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U33" s="35"/>
       <c r="V33" s="35"/>
       <c r="W33" s="35"/>
@@ -3458,11 +3566,11 @@
       </c>
       <c r="E34" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G34" s="37" t="s">
         <v>20</v>
@@ -3500,8 +3608,12 @@
       <c r="R34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
+      <c r="S34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T34" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U34" s="35"/>
       <c r="V34" s="35"/>
       <c r="W34" s="35"/>
@@ -3526,11 +3638,11 @@
       </c>
       <c r="E35" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G35" s="37" t="s">
         <v>20</v>
@@ -3568,8 +3680,12 @@
       <c r="R35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
+      <c r="S35" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="T35" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U35" s="35"/>
       <c r="V35" s="35"/>
       <c r="W35" s="35"/>
@@ -3598,7 +3714,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>21</v>
@@ -3636,8 +3752,12 @@
       <c r="R36" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
+      <c r="S36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T36" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U36" s="35"/>
       <c r="V36" s="35"/>
       <c r="W36" s="35"/>
@@ -3666,7 +3786,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G37" s="37" t="s">
         <v>20</v>
@@ -3704,8 +3824,12 @@
       <c r="R37" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
+      <c r="S37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T37" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U37" s="35"/>
       <c r="V37" s="35"/>
       <c r="W37" s="35"/>
@@ -3734,7 +3858,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G38" s="37" t="s">
         <v>20</v>
@@ -3772,8 +3896,12 @@
       <c r="R38" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S38" s="35"/>
-      <c r="T38" s="35"/>
+      <c r="S38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T38" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U38" s="35"/>
       <c r="V38" s="35"/>
       <c r="W38" s="35"/>
@@ -3802,7 +3930,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G39" s="37" t="s">
         <v>21</v>
@@ -3840,8 +3968,12 @@
       <c r="R39" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
+      <c r="S39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T39" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U39" s="35"/>
       <c r="V39" s="35"/>
       <c r="W39" s="35"/>
@@ -3870,7 +4002,7 @@
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G40" s="37" t="s">
         <v>20</v>
@@ -3908,8 +4040,12 @@
       <c r="R40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S40" s="35"/>
-      <c r="T40" s="35"/>
+      <c r="S40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T40" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U40" s="35"/>
       <c r="V40" s="35"/>
       <c r="W40" s="35"/>
@@ -3938,7 +4074,7 @@
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G41" s="37" t="s">
         <v>20</v>
@@ -3976,8 +4112,12 @@
       <c r="R41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S41" s="35"/>
-      <c r="T41" s="35"/>
+      <c r="S41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T41" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U41" s="35"/>
       <c r="V41" s="35"/>
       <c r="W41" s="35"/>
@@ -4002,11 +4142,11 @@
       </c>
       <c r="E42" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G42" s="37" t="s">
         <v>21</v>
@@ -4044,8 +4184,12 @@
       <c r="R42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S42" s="35"/>
-      <c r="T42" s="35"/>
+      <c r="S42" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="T42" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U42" s="35"/>
       <c r="V42" s="35"/>
       <c r="W42" s="35"/>
@@ -4074,7 +4218,7 @@
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G43" s="37" t="s">
         <v>21</v>
@@ -4112,8 +4256,12 @@
       <c r="R43" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S43" s="35"/>
-      <c r="T43" s="35"/>
+      <c r="S43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T43" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U43" s="35"/>
       <c r="V43" s="35"/>
       <c r="W43" s="35"/>
@@ -4138,11 +4286,11 @@
       </c>
       <c r="E44" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G44" s="37" t="s">
         <v>20</v>
@@ -4180,8 +4328,12 @@
       <c r="R44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S44" s="35"/>
-      <c r="T44" s="35"/>
+      <c r="S44" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="T44" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U44" s="35"/>
       <c r="V44" s="35"/>
       <c r="W44" s="35"/>
@@ -4210,7 +4362,7 @@
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G45" s="37" t="s">
         <v>21</v>
@@ -4248,8 +4400,12 @@
       <c r="R45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S45" s="35"/>
-      <c r="T45" s="35"/>
+      <c r="S45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T45" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U45" s="35"/>
       <c r="V45" s="35"/>
       <c r="W45" s="35"/>
@@ -4278,7 +4434,7 @@
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G46" s="37" t="s">
         <v>21</v>
@@ -4316,8 +4472,12 @@
       <c r="R46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S46" s="35"/>
-      <c r="T46" s="35"/>
+      <c r="S46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T46" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U46" s="35"/>
       <c r="V46" s="35"/>
       <c r="W46" s="35"/>
@@ -4346,7 +4506,7 @@
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G47" s="37" t="s">
         <v>21</v>
@@ -4384,8 +4544,12 @@
       <c r="R47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S47" s="35"/>
-      <c r="T47" s="35"/>
+      <c r="S47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T47" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U47" s="35"/>
       <c r="V47" s="35"/>
       <c r="W47" s="35"/>
@@ -4414,7 +4578,7 @@
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G48" s="37" t="s">
         <v>20</v>
@@ -4452,8 +4616,12 @@
       <c r="R48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S48" s="35"/>
-      <c r="T48" s="35"/>
+      <c r="S48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T48" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U48" s="35"/>
       <c r="V48" s="35"/>
       <c r="W48" s="35"/>
@@ -4478,11 +4646,11 @@
       </c>
       <c r="E49" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G49" s="37" t="s">
         <v>20</v>
@@ -4520,8 +4688,12 @@
       <c r="R49" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S49" s="35"/>
-      <c r="T49" s="35"/>
+      <c r="S49" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="T49" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U49" s="35"/>
       <c r="V49" s="35"/>
       <c r="W49" s="35"/>
@@ -4550,7 +4722,7 @@
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G50" s="37" t="s">
         <v>21</v>
@@ -4588,8 +4760,12 @@
       <c r="R50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S50" s="35"/>
-      <c r="T50" s="35"/>
+      <c r="S50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T50" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U50" s="35"/>
       <c r="V50" s="35"/>
       <c r="W50" s="35"/>
@@ -4618,7 +4794,7 @@
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G51" s="37" t="s">
         <v>21</v>
@@ -4656,8 +4832,12 @@
       <c r="R51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S51" s="35"/>
-      <c r="T51" s="35"/>
+      <c r="S51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T51" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U51" s="35"/>
       <c r="V51" s="35"/>
       <c r="W51" s="35"/>
@@ -4686,7 +4866,7 @@
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G52" s="37" t="s">
         <v>20</v>
@@ -4724,8 +4904,12 @@
       <c r="R52" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S52" s="35"/>
-      <c r="T52" s="35"/>
+      <c r="S52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T52" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U52" s="35"/>
       <c r="V52" s="35"/>
       <c r="W52" s="35"/>
@@ -4754,7 +4938,7 @@
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G53" s="37" t="s">
         <v>21</v>
@@ -4792,8 +4976,12 @@
       <c r="R53" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S53" s="35"/>
-      <c r="T53" s="35"/>
+      <c r="S53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T53" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U53" s="35"/>
       <c r="V53" s="35"/>
       <c r="W53" s="35"/>
@@ -4818,11 +5006,11 @@
       </c>
       <c r="E54" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G54" s="37" t="s">
         <v>20</v>
@@ -4860,8 +5048,12 @@
       <c r="R54" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S54" s="35"/>
-      <c r="T54" s="35"/>
+      <c r="S54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T54" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U54" s="35"/>
       <c r="V54" s="35"/>
       <c r="W54" s="35"/>
@@ -4890,7 +5082,7 @@
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G55" s="37" t="s">
         <v>21</v>
@@ -4928,8 +5120,12 @@
       <c r="R55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S55" s="35"/>
-      <c r="T55" s="35"/>
+      <c r="S55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T55" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U55" s="35"/>
       <c r="V55" s="35"/>
       <c r="W55" s="35"/>
@@ -4958,7 +5154,7 @@
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G56" s="37" t="s">
         <v>20</v>
@@ -4996,8 +5192,12 @@
       <c r="R56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S56" s="35"/>
-      <c r="T56" s="35"/>
+      <c r="S56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T56" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U56" s="35"/>
       <c r="V56" s="35"/>
       <c r="W56" s="35"/>
@@ -5026,7 +5226,7 @@
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G57" s="37" t="s">
         <v>21</v>
@@ -5064,8 +5264,12 @@
       <c r="R57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S57" s="35"/>
-      <c r="T57" s="35"/>
+      <c r="S57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T57" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U57" s="35"/>
       <c r="V57" s="35"/>
       <c r="W57" s="35"/>
@@ -5090,11 +5294,11 @@
       </c>
       <c r="E58" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" s="37" t="s">
         <v>20</v>
@@ -5132,8 +5336,12 @@
       <c r="R58" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S58" s="35"/>
-      <c r="T58" s="35"/>
+      <c r="S58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T58" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U58" s="35"/>
       <c r="V58" s="35"/>
       <c r="W58" s="35"/>
@@ -5158,11 +5366,11 @@
       </c>
       <c r="E59" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G59" s="37" t="s">
         <v>21</v>
@@ -5200,8 +5408,12 @@
       <c r="R59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S59" s="35"/>
-      <c r="T59" s="35"/>
+      <c r="S59" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="T59" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U59" s="35"/>
       <c r="V59" s="35"/>
       <c r="W59" s="35"/>
@@ -5226,11 +5438,11 @@
       </c>
       <c r="E60" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G60" s="37" t="s">
         <v>20</v>
@@ -5268,8 +5480,12 @@
       <c r="R60" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S60" s="35"/>
-      <c r="T60" s="35"/>
+      <c r="S60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T60" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U60" s="35"/>
       <c r="V60" s="35"/>
       <c r="W60" s="35"/>
@@ -5294,11 +5510,11 @@
       </c>
       <c r="E61" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G61" s="37" t="s">
         <v>20</v>
@@ -5336,8 +5552,12 @@
       <c r="R61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S61" s="35"/>
-      <c r="T61" s="35"/>
+      <c r="S61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T61" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U61" s="35"/>
       <c r="V61" s="35"/>
       <c r="W61" s="35"/>
@@ -5366,7 +5586,7 @@
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G62" s="37" t="s">
         <v>20</v>
@@ -5404,8 +5624,12 @@
       <c r="R62" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S62" s="35"/>
-      <c r="T62" s="35"/>
+      <c r="S62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T62" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U62" s="35"/>
       <c r="V62" s="35"/>
       <c r="W62" s="35"/>
@@ -5430,11 +5654,11 @@
       </c>
       <c r="E63" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" s="37" t="s">
         <v>20</v>
@@ -5472,8 +5696,12 @@
       <c r="R63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S63" s="35"/>
-      <c r="T63" s="35"/>
+      <c r="S63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T63" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U63" s="35"/>
       <c r="V63" s="35"/>
       <c r="W63" s="35"/>
@@ -5502,7 +5730,7 @@
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G64" s="37" t="s">
         <v>21</v>
@@ -5540,8 +5768,12 @@
       <c r="R64" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S64" s="35"/>
-      <c r="T64" s="35"/>
+      <c r="S64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T64" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U64" s="35"/>
       <c r="V64" s="35"/>
       <c r="W64" s="35"/>
@@ -5570,7 +5802,7 @@
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G65" s="37" t="s">
         <v>20</v>
@@ -5608,8 +5840,12 @@
       <c r="R65" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S65" s="35"/>
-      <c r="T65" s="35"/>
+      <c r="S65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T65" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U65" s="35"/>
       <c r="V65" s="35"/>
       <c r="W65" s="35"/>
@@ -5638,7 +5874,7 @@
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G66" s="37" t="s">
         <v>21</v>
@@ -5676,8 +5912,12 @@
       <c r="R66" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S66" s="35"/>
-      <c r="T66" s="35"/>
+      <c r="S66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T66" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U66" s="35"/>
       <c r="V66" s="35"/>
       <c r="W66" s="35"/>
@@ -5702,11 +5942,11 @@
       </c>
       <c r="E67" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G67" s="37" t="s">
         <v>21</v>
@@ -5744,8 +5984,12 @@
       <c r="R67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S67" s="35"/>
-      <c r="T67" s="35"/>
+      <c r="S67" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="T67" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U67" s="35"/>
       <c r="V67" s="35"/>
       <c r="W67" s="35"/>
@@ -5774,7 +6018,7 @@
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G68" s="37" t="s">
         <v>20</v>
@@ -5812,8 +6056,12 @@
       <c r="R68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S68" s="35"/>
-      <c r="T68" s="35"/>
+      <c r="S68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T68" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U68" s="35"/>
       <c r="V68" s="35"/>
       <c r="W68" s="35"/>
@@ -5842,7 +6090,7 @@
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G69" s="37" t="s">
         <v>21</v>
@@ -5880,8 +6128,12 @@
       <c r="R69" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S69" s="35"/>
-      <c r="T69" s="35"/>
+      <c r="S69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T69" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U69" s="35"/>
       <c r="V69" s="35"/>
       <c r="W69" s="35"/>
@@ -5906,11 +6158,11 @@
       </c>
       <c r="E70" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G70" s="37" t="s">
         <v>21</v>
@@ -5948,8 +6200,12 @@
       <c r="R70" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S70" s="35"/>
-      <c r="T70" s="35"/>
+      <c r="S70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T70" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U70" s="35"/>
       <c r="V70" s="35"/>
       <c r="W70" s="35"/>
@@ -5974,11 +6230,11 @@
       </c>
       <c r="E71" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G71" s="37" t="s">
         <v>20</v>
@@ -6016,8 +6272,12 @@
       <c r="R71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S71" s="35"/>
-      <c r="T71" s="35"/>
+      <c r="S71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T71" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U71" s="35"/>
       <c r="V71" s="35"/>
       <c r="W71" s="35"/>
@@ -6046,7 +6306,7 @@
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G72" s="37" t="s">
         <v>21</v>
@@ -6084,8 +6344,12 @@
       <c r="R72" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S72" s="35"/>
-      <c r="T72" s="35"/>
+      <c r="S72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T72" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U72" s="35"/>
       <c r="V72" s="35"/>
       <c r="W72" s="35"/>
@@ -6114,7 +6378,7 @@
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G73" s="37" t="s">
         <v>20</v>
@@ -6152,8 +6416,12 @@
       <c r="R73" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S73" s="35"/>
-      <c r="T73" s="35"/>
+      <c r="S73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T73" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U73" s="35"/>
       <c r="V73" s="35"/>
       <c r="W73" s="35"/>
@@ -6178,11 +6446,11 @@
       </c>
       <c r="E74" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G74" s="37" t="s">
         <v>21</v>
@@ -6220,8 +6488,12 @@
       <c r="R74" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S74" s="35"/>
-      <c r="T74" s="35"/>
+      <c r="S74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T74" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U74" s="35"/>
       <c r="V74" s="35"/>
       <c r="W74" s="35"/>
@@ -6246,7 +6518,7 @@
       </c>
       <c r="E75" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
@@ -6288,8 +6560,12 @@
       <c r="R75" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S75" s="35"/>
-      <c r="T75" s="35"/>
+      <c r="S75" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="T75" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U75" s="35"/>
       <c r="V75" s="35"/>
       <c r="W75" s="35"/>
@@ -6314,12 +6590,12 @@
       </c>
       <c r="E76" s="26">
         <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F76" s="34">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="F76" s="34">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
       <c r="G76" s="37" t="s">
         <v>21</v>
       </c>
@@ -6356,8 +6632,12 @@
       <c r="R76" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S76" s="35"/>
-      <c r="T76" s="35"/>
+      <c r="S76" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="T76" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U76" s="35"/>
       <c r="V76" s="35"/>
       <c r="W76" s="35"/>
@@ -6386,7 +6666,7 @@
       </c>
       <c r="F77" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G77" s="37" t="s">
         <v>20</v>
@@ -6424,8 +6704,12 @@
       <c r="R77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S77" s="35"/>
-      <c r="T77" s="35"/>
+      <c r="S77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T77" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U77" s="35"/>
       <c r="V77" s="35"/>
       <c r="W77" s="35"/>
@@ -6454,7 +6738,7 @@
       </c>
       <c r="F78" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G78" s="37" t="s">
         <v>20</v>
@@ -6492,8 +6776,12 @@
       <c r="R78" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S78" s="35"/>
-      <c r="T78" s="35"/>
+      <c r="S78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T78" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U78" s="35"/>
       <c r="V78" s="35"/>
       <c r="W78" s="35"/>
@@ -6522,7 +6810,7 @@
       </c>
       <c r="F79" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G79" s="37" t="s">
         <v>20</v>
@@ -6560,8 +6848,12 @@
       <c r="R79" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S79" s="35"/>
-      <c r="T79" s="35"/>
+      <c r="S79" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T79" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U79" s="35"/>
       <c r="V79" s="35"/>
       <c r="W79" s="35"/>
@@ -6590,7 +6882,7 @@
       </c>
       <c r="F80" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G80" s="37" t="s">
         <v>20</v>
@@ -6628,8 +6920,12 @@
       <c r="R80" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S80" s="35"/>
-      <c r="T80" s="35"/>
+      <c r="S80" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T80" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U80" s="35"/>
       <c r="V80" s="35"/>
       <c r="W80" s="35"/>
@@ -6658,7 +6954,7 @@
       </c>
       <c r="F81" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G81" s="37" t="s">
         <v>20</v>
@@ -6696,8 +6992,12 @@
       <c r="R81" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S81" s="35"/>
-      <c r="T81" s="35"/>
+      <c r="S81" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T81" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U81" s="35"/>
       <c r="V81" s="35"/>
       <c r="W81" s="35"/>
@@ -6722,11 +7022,11 @@
       </c>
       <c r="E82" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G82" s="37" t="s">
         <v>20</v>
@@ -6764,8 +7064,12 @@
       <c r="R82" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S82" s="35"/>
-      <c r="T82" s="35"/>
+      <c r="S82" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T82" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U82" s="35"/>
       <c r="V82" s="35"/>
       <c r="W82" s="35"/>

--- a/attendance-files/SM-II/SM-II (F) Attendance Sheet.xlsx
+++ b/attendance-files/SM-II/SM-II (F) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="172">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1219,10 +1219,8 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3.0" ySplit="6.0" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D1" sqref="D1" pane="topRight"/>
-      <selection activeCell="A7" sqref="A7" pane="bottomLeft"/>
-      <selection activeCell="D7" sqref="D7" pane="bottomRight"/>
+      <pane ySplit="6.0" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B8" sqref="B8" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
@@ -1628,7 +1626,7 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1672,9 +1670,7 @@
       <c r="T7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U7" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U7" s="30"/>
       <c r="V7" s="30"/>
       <c r="W7" s="30"/>
       <c r="X7" s="30"/>
@@ -1698,7 +1694,7 @@
       </c>
       <c r="E8" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
@@ -1746,9 +1742,7 @@
       <c r="T8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U8" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U8" s="35"/>
       <c r="V8" s="35"/>
       <c r="W8" s="35"/>
       <c r="X8" s="35"/>
@@ -1776,7 +1770,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>21</v>
@@ -1820,9 +1814,7 @@
       <c r="T9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U9" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U9" s="35"/>
       <c r="V9" s="35"/>
       <c r="W9" s="35"/>
       <c r="X9" s="35"/>
@@ -1850,7 +1842,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>20</v>
@@ -1894,9 +1886,7 @@
       <c r="T10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U10" s="35"/>
       <c r="V10" s="35"/>
       <c r="W10" s="35"/>
       <c r="X10" s="35"/>
@@ -1920,7 +1910,7 @@
       </c>
       <c r="E11" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
@@ -1968,9 +1958,7 @@
       <c r="T11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U11" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U11" s="35"/>
       <c r="V11" s="35"/>
       <c r="W11" s="35"/>
       <c r="X11" s="35"/>
@@ -1994,7 +1982,7 @@
       </c>
       <c r="E12" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
@@ -2042,9 +2030,7 @@
       <c r="T12" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U12" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U12" s="35"/>
       <c r="V12" s="35"/>
       <c r="W12" s="35"/>
       <c r="X12" s="35"/>
@@ -2072,7 +2058,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>20</v>
@@ -2116,9 +2102,7 @@
       <c r="T13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U13" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U13" s="35"/>
       <c r="V13" s="35"/>
       <c r="W13" s="35"/>
       <c r="X13" s="35"/>
@@ -2142,7 +2126,7 @@
       </c>
       <c r="E14" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
@@ -2190,9 +2174,7 @@
       <c r="T14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U14" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U14" s="35"/>
       <c r="V14" s="35"/>
       <c r="W14" s="35"/>
       <c r="X14" s="35"/>
@@ -2216,7 +2198,7 @@
       </c>
       <c r="E15" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
@@ -2264,9 +2246,7 @@
       <c r="T15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U15" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U15" s="35"/>
       <c r="V15" s="35"/>
       <c r="W15" s="35"/>
       <c r="X15" s="35"/>
@@ -2294,7 +2274,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>20</v>
@@ -2338,9 +2318,7 @@
       <c r="T16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U16" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U16" s="35"/>
       <c r="V16" s="35"/>
       <c r="W16" s="35"/>
       <c r="X16" s="35"/>
@@ -2368,7 +2346,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>21</v>
@@ -2412,9 +2390,7 @@
       <c r="T17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U17" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U17" s="35"/>
       <c r="V17" s="35"/>
       <c r="W17" s="35"/>
       <c r="X17" s="35"/>
@@ -2442,7 +2418,7 @@
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>21</v>
@@ -2486,9 +2462,7 @@
       <c r="T18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U18" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U18" s="35"/>
       <c r="V18" s="35"/>
       <c r="W18" s="35"/>
       <c r="X18" s="35"/>
@@ -2512,7 +2486,7 @@
       </c>
       <c r="E19" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
@@ -2560,9 +2534,7 @@
       <c r="T19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U19" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U19" s="35"/>
       <c r="V19" s="35"/>
       <c r="W19" s="35"/>
       <c r="X19" s="35"/>
@@ -2586,7 +2558,7 @@
       </c>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
@@ -2634,9 +2606,7 @@
       <c r="T20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U20" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U20" s="35"/>
       <c r="V20" s="35"/>
       <c r="W20" s="35"/>
       <c r="X20" s="35"/>
@@ -2660,7 +2630,7 @@
       </c>
       <c r="E21" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
@@ -2708,9 +2678,7 @@
       <c r="T21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U21" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U21" s="35"/>
       <c r="V21" s="35"/>
       <c r="W21" s="35"/>
       <c r="X21" s="35"/>
@@ -2734,7 +2702,7 @@
       </c>
       <c r="E22" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
@@ -2782,9 +2750,7 @@
       <c r="T22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U22" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U22" s="35"/>
       <c r="V22" s="35"/>
       <c r="W22" s="35"/>
       <c r="X22" s="35"/>
@@ -2808,7 +2774,7 @@
       </c>
       <c r="E23" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
@@ -2856,9 +2822,7 @@
       <c r="T23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U23" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U23" s="35"/>
       <c r="V23" s="35"/>
       <c r="W23" s="35"/>
       <c r="X23" s="35"/>
@@ -2882,7 +2846,7 @@
       </c>
       <c r="E24" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
@@ -2930,9 +2894,7 @@
       <c r="T24" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U24" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U24" s="35"/>
       <c r="V24" s="35"/>
       <c r="W24" s="35"/>
       <c r="X24" s="35"/>
@@ -2956,7 +2918,7 @@
       </c>
       <c r="E25" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
@@ -3004,9 +2966,7 @@
       <c r="T25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U25" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U25" s="35"/>
       <c r="V25" s="35"/>
       <c r="W25" s="35"/>
       <c r="X25" s="35"/>
@@ -3030,7 +2990,7 @@
       </c>
       <c r="E26" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
@@ -3078,9 +3038,7 @@
       <c r="T26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U26" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U26" s="35"/>
       <c r="V26" s="35"/>
       <c r="W26" s="35"/>
       <c r="X26" s="35"/>
@@ -3108,7 +3066,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G27" s="37" t="s">
         <v>21</v>
@@ -3152,9 +3110,7 @@
       <c r="T27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U27" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U27" s="35"/>
       <c r="V27" s="35"/>
       <c r="W27" s="35"/>
       <c r="X27" s="35"/>
@@ -3182,7 +3138,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G28" s="37" t="s">
         <v>21</v>
@@ -3226,9 +3182,7 @@
       <c r="T28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U28" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U28" s="35"/>
       <c r="V28" s="35"/>
       <c r="W28" s="35"/>
       <c r="X28" s="35"/>
@@ -3256,7 +3210,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G29" s="37" t="s">
         <v>20</v>
@@ -3300,9 +3254,7 @@
       <c r="T29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U29" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U29" s="35"/>
       <c r="V29" s="35"/>
       <c r="W29" s="35"/>
       <c r="X29" s="35"/>
@@ -3330,7 +3282,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G30" s="37" t="s">
         <v>21</v>
@@ -3374,9 +3326,7 @@
       <c r="T30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U30" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U30" s="35"/>
       <c r="V30" s="35"/>
       <c r="W30" s="35"/>
       <c r="X30" s="35"/>
@@ -3404,7 +3354,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G31" s="37" t="s">
         <v>21</v>
@@ -3448,9 +3398,7 @@
       <c r="T31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U31" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U31" s="35"/>
       <c r="V31" s="35"/>
       <c r="W31" s="35"/>
       <c r="X31" s="35"/>
@@ -3478,7 +3426,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G32" s="37" t="s">
         <v>21</v>
@@ -3522,9 +3470,7 @@
       <c r="T32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U32" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U32" s="35"/>
       <c r="V32" s="35"/>
       <c r="W32" s="35"/>
       <c r="X32" s="35"/>
@@ -3552,7 +3498,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G33" s="37" t="s">
         <v>20</v>
@@ -3596,9 +3542,7 @@
       <c r="T33" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U33" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U33" s="35"/>
       <c r="V33" s="35"/>
       <c r="W33" s="35"/>
       <c r="X33" s="35"/>
@@ -3626,7 +3570,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G34" s="37" t="s">
         <v>20</v>
@@ -3670,9 +3614,7 @@
       <c r="T34" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U34" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U34" s="35"/>
       <c r="V34" s="35"/>
       <c r="W34" s="35"/>
       <c r="X34" s="35"/>
@@ -3700,7 +3642,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G35" s="37" t="s">
         <v>20</v>
@@ -3744,9 +3686,7 @@
       <c r="T35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U35" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U35" s="35"/>
       <c r="V35" s="35"/>
       <c r="W35" s="35"/>
       <c r="X35" s="35"/>
@@ -3774,7 +3714,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>21</v>
@@ -3818,9 +3758,7 @@
       <c r="T36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U36" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U36" s="35"/>
       <c r="V36" s="35"/>
       <c r="W36" s="35"/>
       <c r="X36" s="35"/>
@@ -3848,7 +3786,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G37" s="37" t="s">
         <v>20</v>
@@ -3892,9 +3830,7 @@
       <c r="T37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U37" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U37" s="35"/>
       <c r="V37" s="35"/>
       <c r="W37" s="35"/>
       <c r="X37" s="35"/>
@@ -3922,7 +3858,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G38" s="37" t="s">
         <v>20</v>
@@ -3966,9 +3902,7 @@
       <c r="T38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U38" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U38" s="35"/>
       <c r="V38" s="35"/>
       <c r="W38" s="35"/>
       <c r="X38" s="35"/>
@@ -3996,7 +3930,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G39" s="37" t="s">
         <v>21</v>
@@ -4040,9 +3974,7 @@
       <c r="T39" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U39" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U39" s="35"/>
       <c r="V39" s="35"/>
       <c r="W39" s="35"/>
       <c r="X39" s="35"/>
@@ -4070,7 +4002,7 @@
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G40" s="37" t="s">
         <v>20</v>
@@ -4114,9 +4046,7 @@
       <c r="T40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U40" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U40" s="35"/>
       <c r="V40" s="35"/>
       <c r="W40" s="35"/>
       <c r="X40" s="35"/>
@@ -4144,7 +4074,7 @@
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G41" s="37" t="s">
         <v>20</v>
@@ -4188,9 +4118,7 @@
       <c r="T41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U41" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U41" s="35"/>
       <c r="V41" s="35"/>
       <c r="W41" s="35"/>
       <c r="X41" s="35"/>
@@ -4218,7 +4146,7 @@
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G42" s="37" t="s">
         <v>21</v>
@@ -4262,9 +4190,7 @@
       <c r="T42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U42" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U42" s="35"/>
       <c r="V42" s="35"/>
       <c r="W42" s="35"/>
       <c r="X42" s="35"/>
@@ -4292,7 +4218,7 @@
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G43" s="37" t="s">
         <v>21</v>
@@ -4336,9 +4262,7 @@
       <c r="T43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U43" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U43" s="35"/>
       <c r="V43" s="35"/>
       <c r="W43" s="35"/>
       <c r="X43" s="35"/>
@@ -4362,7 +4286,7 @@
       </c>
       <c r="E44" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
@@ -4410,9 +4334,7 @@
       <c r="T44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U44" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U44" s="35"/>
       <c r="V44" s="35"/>
       <c r="W44" s="35"/>
       <c r="X44" s="35"/>
@@ -4436,7 +4358,7 @@
       </c>
       <c r="E45" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
@@ -4484,9 +4406,7 @@
       <c r="T45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U45" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U45" s="35"/>
       <c r="V45" s="35"/>
       <c r="W45" s="35"/>
       <c r="X45" s="35"/>
@@ -4514,7 +4434,7 @@
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G46" s="37" t="s">
         <v>21</v>
@@ -4558,9 +4478,7 @@
       <c r="T46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U46" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U46" s="35"/>
       <c r="V46" s="35"/>
       <c r="W46" s="35"/>
       <c r="X46" s="35"/>
@@ -4588,7 +4506,7 @@
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G47" s="37" t="s">
         <v>21</v>
@@ -4632,9 +4550,7 @@
       <c r="T47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U47" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U47" s="35"/>
       <c r="V47" s="35"/>
       <c r="W47" s="35"/>
       <c r="X47" s="35"/>
@@ -4662,7 +4578,7 @@
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G48" s="37" t="s">
         <v>20</v>
@@ -4706,9 +4622,7 @@
       <c r="T48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U48" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U48" s="35"/>
       <c r="V48" s="35"/>
       <c r="W48" s="35"/>
       <c r="X48" s="35"/>
@@ -4736,7 +4650,7 @@
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G49" s="37" t="s">
         <v>20</v>
@@ -4780,9 +4694,7 @@
       <c r="T49" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U49" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U49" s="35"/>
       <c r="V49" s="35"/>
       <c r="W49" s="35"/>
       <c r="X49" s="35"/>
@@ -4810,7 +4722,7 @@
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G50" s="37" t="s">
         <v>21</v>
@@ -4854,9 +4766,7 @@
       <c r="T50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U50" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U50" s="35"/>
       <c r="V50" s="35"/>
       <c r="W50" s="35"/>
       <c r="X50" s="35"/>
@@ -4880,7 +4790,7 @@
       </c>
       <c r="E51" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
@@ -4928,9 +4838,7 @@
       <c r="T51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U51" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U51" s="35"/>
       <c r="V51" s="35"/>
       <c r="W51" s="35"/>
       <c r="X51" s="35"/>
@@ -4958,7 +4866,7 @@
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G52" s="37" t="s">
         <v>20</v>
@@ -5002,9 +4910,7 @@
       <c r="T52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U52" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U52" s="35"/>
       <c r="V52" s="35"/>
       <c r="W52" s="35"/>
       <c r="X52" s="35"/>
@@ -5032,7 +4938,7 @@
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G53" s="37" t="s">
         <v>21</v>
@@ -5076,9 +4982,7 @@
       <c r="T53" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U53" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U53" s="35"/>
       <c r="V53" s="35"/>
       <c r="W53" s="35"/>
       <c r="X53" s="35"/>
@@ -5106,7 +5010,7 @@
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G54" s="37" t="s">
         <v>20</v>
@@ -5150,9 +5054,7 @@
       <c r="T54" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U54" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U54" s="35"/>
       <c r="V54" s="35"/>
       <c r="W54" s="35"/>
       <c r="X54" s="35"/>
@@ -5180,7 +5082,7 @@
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G55" s="37" t="s">
         <v>21</v>
@@ -5224,9 +5126,7 @@
       <c r="T55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U55" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U55" s="35"/>
       <c r="V55" s="35"/>
       <c r="W55" s="35"/>
       <c r="X55" s="35"/>
@@ -5254,7 +5154,7 @@
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G56" s="37" t="s">
         <v>20</v>
@@ -5298,9 +5198,7 @@
       <c r="T56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U56" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U56" s="35"/>
       <c r="V56" s="35"/>
       <c r="W56" s="35"/>
       <c r="X56" s="35"/>
@@ -5328,7 +5226,7 @@
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G57" s="37" t="s">
         <v>21</v>
@@ -5372,9 +5270,7 @@
       <c r="T57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U57" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U57" s="35"/>
       <c r="V57" s="35"/>
       <c r="W57" s="35"/>
       <c r="X57" s="35"/>
@@ -5398,7 +5294,7 @@
       </c>
       <c r="E58" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
@@ -5446,9 +5342,7 @@
       <c r="T58" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U58" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U58" s="35"/>
       <c r="V58" s="35"/>
       <c r="W58" s="35"/>
       <c r="X58" s="35"/>
@@ -5476,7 +5370,7 @@
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G59" s="37" t="s">
         <v>21</v>
@@ -5520,9 +5414,7 @@
       <c r="T59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U59" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U59" s="35"/>
       <c r="V59" s="35"/>
       <c r="W59" s="35"/>
       <c r="X59" s="35"/>
@@ -5550,7 +5442,7 @@
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G60" s="37" t="s">
         <v>20</v>
@@ -5594,9 +5486,7 @@
       <c r="T60" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U60" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U60" s="35"/>
       <c r="V60" s="35"/>
       <c r="W60" s="35"/>
       <c r="X60" s="35"/>
@@ -5620,11 +5510,11 @@
       </c>
       <c r="E61" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G61" s="37" t="s">
         <v>20</v>
@@ -5666,11 +5556,9 @@
         <v>20</v>
       </c>
       <c r="T61" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="U61" s="29" t="s">
-        <v>20</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="U61" s="35"/>
       <c r="V61" s="35"/>
       <c r="W61" s="35"/>
       <c r="X61" s="35"/>
@@ -5698,7 +5586,7 @@
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G62" s="37" t="s">
         <v>20</v>
@@ -5742,9 +5630,7 @@
       <c r="T62" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U62" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U62" s="35"/>
       <c r="V62" s="35"/>
       <c r="W62" s="35"/>
       <c r="X62" s="35"/>
@@ -5768,7 +5654,7 @@
       </c>
       <c r="E63" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
@@ -5816,9 +5702,7 @@
       <c r="T63" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U63" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U63" s="35"/>
       <c r="V63" s="35"/>
       <c r="W63" s="35"/>
       <c r="X63" s="35"/>
@@ -5846,7 +5730,7 @@
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G64" s="37" t="s">
         <v>21</v>
@@ -5890,9 +5774,7 @@
       <c r="T64" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U64" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U64" s="35"/>
       <c r="V64" s="35"/>
       <c r="W64" s="35"/>
       <c r="X64" s="35"/>
@@ -5920,7 +5802,7 @@
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G65" s="37" t="s">
         <v>20</v>
@@ -5964,9 +5846,7 @@
       <c r="T65" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U65" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U65" s="35"/>
       <c r="V65" s="35"/>
       <c r="W65" s="35"/>
       <c r="X65" s="35"/>
@@ -5990,7 +5870,7 @@
       </c>
       <c r="E66" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
@@ -6038,9 +5918,7 @@
       <c r="T66" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U66" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U66" s="35"/>
       <c r="V66" s="35"/>
       <c r="W66" s="35"/>
       <c r="X66" s="35"/>
@@ -6068,7 +5946,7 @@
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G67" s="37" t="s">
         <v>21</v>
@@ -6112,9 +5990,7 @@
       <c r="T67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U67" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U67" s="35"/>
       <c r="V67" s="35"/>
       <c r="W67" s="35"/>
       <c r="X67" s="35"/>
@@ -6138,7 +6014,7 @@
       </c>
       <c r="E68" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
@@ -6186,9 +6062,7 @@
       <c r="T68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U68" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U68" s="35"/>
       <c r="V68" s="35"/>
       <c r="W68" s="35"/>
       <c r="X68" s="35"/>
@@ -6216,7 +6090,7 @@
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G69" s="37" t="s">
         <v>21</v>
@@ -6260,9 +6134,7 @@
       <c r="T69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U69" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U69" s="35"/>
       <c r="V69" s="35"/>
       <c r="W69" s="35"/>
       <c r="X69" s="35"/>
@@ -6290,7 +6162,7 @@
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G70" s="37" t="s">
         <v>21</v>
@@ -6334,9 +6206,7 @@
       <c r="T70" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U70" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U70" s="35"/>
       <c r="V70" s="35"/>
       <c r="W70" s="35"/>
       <c r="X70" s="35"/>
@@ -6360,7 +6230,7 @@
       </c>
       <c r="E71" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
@@ -6408,9 +6278,7 @@
       <c r="T71" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U71" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U71" s="35"/>
       <c r="V71" s="35"/>
       <c r="W71" s="35"/>
       <c r="X71" s="35"/>
@@ -6438,7 +6306,7 @@
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G72" s="37" t="s">
         <v>21</v>
@@ -6482,9 +6350,7 @@
       <c r="T72" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U72" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U72" s="35"/>
       <c r="V72" s="35"/>
       <c r="W72" s="35"/>
       <c r="X72" s="35"/>
@@ -6508,7 +6374,7 @@
       </c>
       <c r="E73" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
@@ -6556,9 +6422,7 @@
       <c r="T73" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U73" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U73" s="35"/>
       <c r="V73" s="35"/>
       <c r="W73" s="35"/>
       <c r="X73" s="35"/>
@@ -6586,7 +6450,7 @@
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G74" s="37" t="s">
         <v>21</v>
@@ -6630,9 +6494,7 @@
       <c r="T74" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U74" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U74" s="35"/>
       <c r="V74" s="35"/>
       <c r="W74" s="35"/>
       <c r="X74" s="35"/>
@@ -6660,7 +6522,7 @@
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G75" s="37" t="s">
         <v>20</v>
@@ -6704,9 +6566,7 @@
       <c r="T75" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U75" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U75" s="35"/>
       <c r="V75" s="35"/>
       <c r="W75" s="35"/>
       <c r="X75" s="35"/>
@@ -6734,7 +6594,7 @@
       </c>
       <c r="F76" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G76" s="37" t="s">
         <v>21</v>
@@ -6778,9 +6638,7 @@
       <c r="T76" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U76" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U76" s="35"/>
       <c r="V76" s="35"/>
       <c r="W76" s="35"/>
       <c r="X76" s="35"/>
@@ -6804,7 +6662,7 @@
       </c>
       <c r="E77" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F77" s="34">
         <f t="shared" si="2"/>
@@ -6852,9 +6710,7 @@
       <c r="T77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U77" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U77" s="35"/>
       <c r="V77" s="35"/>
       <c r="W77" s="35"/>
       <c r="X77" s="35"/>
@@ -6882,7 +6738,7 @@
       </c>
       <c r="F78" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G78" s="37" t="s">
         <v>20</v>
@@ -6926,9 +6782,7 @@
       <c r="T78" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U78" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U78" s="35"/>
       <c r="V78" s="35"/>
       <c r="W78" s="35"/>
       <c r="X78" s="35"/>
@@ -6956,7 +6810,7 @@
       </c>
       <c r="F79" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G79" s="37" t="s">
         <v>20</v>
@@ -7000,9 +6854,7 @@
       <c r="T79" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U79" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U79" s="35"/>
       <c r="V79" s="35"/>
       <c r="W79" s="35"/>
       <c r="X79" s="35"/>
@@ -7030,7 +6882,7 @@
       </c>
       <c r="F80" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G80" s="37" t="s">
         <v>20</v>
@@ -7074,9 +6926,7 @@
       <c r="T80" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U80" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U80" s="35"/>
       <c r="V80" s="35"/>
       <c r="W80" s="35"/>
       <c r="X80" s="35"/>
@@ -7100,7 +6950,7 @@
       </c>
       <c r="E81" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F81" s="34">
         <f t="shared" si="2"/>
@@ -7148,9 +6998,7 @@
       <c r="T81" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U81" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U81" s="35"/>
       <c r="V81" s="35"/>
       <c r="W81" s="35"/>
       <c r="X81" s="35"/>
@@ -7174,7 +7022,7 @@
       </c>
       <c r="E82" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F82" s="34">
         <f t="shared" si="2"/>
@@ -7222,9 +7070,7 @@
       <c r="T82" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U82" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U82" s="35"/>
       <c r="V82" s="35"/>
       <c r="W82" s="35"/>
       <c r="X82" s="35"/>
